--- a/Exported Webinar Data.xlsx
+++ b/Exported Webinar Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="630">
   <si>
     <t>EVENT NAME</t>
   </si>
@@ -65,6 +65,630 @@
     <t>Webinar</t>
   </si>
   <si>
+    <t>RAMESHCHANDRA O PATEL</t>
+  </si>
+  <si>
+    <t>ropatel11@yahoo.com</t>
+  </si>
+  <si>
+    <t>11, PALACIAL BUNGALOWS OPP STAR BAZAR SATELLITE AHMEDABAD</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Viramgam</t>
+  </si>
+  <si>
+    <t>Kumarkhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav Bhatt </t>
+  </si>
+  <si>
+    <t>bhatt.pranav73@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, Shrinathji society , po.Karamsad </t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Valasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himanshu limbasiya </t>
+  </si>
+  <si>
+    <t>forestherbs@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature care center </t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>Khorana</t>
+  </si>
+  <si>
+    <t>હેમંત પટેલ</t>
+  </si>
+  <si>
+    <t>hcpatel69@rediffmail.com</t>
+  </si>
+  <si>
+    <t>ગામ ગુતાલ, તાલુકા, વધોડીયા,જી,વડોદરા</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Vaghodia</t>
+  </si>
+  <si>
+    <t>Gutal</t>
+  </si>
+  <si>
+    <t>Bhoomi</t>
+  </si>
+  <si>
+    <t>15 r</t>
+  </si>
+  <si>
+    <t>Surendranagar</t>
+  </si>
+  <si>
+    <t>Halvad</t>
+  </si>
+  <si>
+    <t>Chandragadh</t>
+  </si>
+  <si>
+    <t>Ramesh patel</t>
+  </si>
+  <si>
+    <t>ramesh@sristi.org</t>
+  </si>
+  <si>
+    <t>H 14 shanti compleks</t>
+  </si>
+  <si>
+    <t>Sabar Kantha</t>
+  </si>
+  <si>
+    <t>Prantij</t>
+  </si>
+  <si>
+    <t>Chhadarda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">રાકેશ ભાઇ કનુભાઈ પટેલ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ડેસર </t>
+  </si>
+  <si>
+    <t>Panch Mahals</t>
+  </si>
+  <si>
+    <t>Halol</t>
+  </si>
+  <si>
+    <t>Desar</t>
+  </si>
+  <si>
+    <t>ગોસ્વામી ધર્મેન્દ્ર ગિરિ જી</t>
+  </si>
+  <si>
+    <t>paramjarivala@Gmail.com</t>
+  </si>
+  <si>
+    <t>Surbhi park , Dhrangadhra , district : Surendranagar</t>
+  </si>
+  <si>
+    <t>Dhrangadhra</t>
+  </si>
+  <si>
+    <t>Methan</t>
+  </si>
+  <si>
+    <t>hfddfhgfh</t>
+  </si>
+  <si>
+    <t>anwar@althouq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdg sdg </t>
+  </si>
+  <si>
+    <t>Bhavnagar</t>
+  </si>
+  <si>
+    <t>Gariadhar</t>
+  </si>
+  <si>
+    <t>Mangadh</t>
+  </si>
+  <si>
+    <t>JAGDISH GHADIYA</t>
+  </si>
+  <si>
+    <t>jppatel2003@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>10 nalanda complex</t>
+  </si>
+  <si>
+    <t>Jamnagar</t>
+  </si>
+  <si>
+    <t>Jamnagar (OG)</t>
+  </si>
+  <si>
+    <t>શામજીભાઇ ગોપાલભાઇ રૈયાણી</t>
+  </si>
+  <si>
+    <t>Shamjiraiyani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82/83 ઓસકાર એ ટાવર  બીગ બજાર સામે દોઢસો ફુટ રીંગ રોડ સીલ્વર સ્ટોન સોસાયટી રાજકોટ </t>
+  </si>
+  <si>
+    <t>Tankara</t>
+  </si>
+  <si>
+    <t>Neknam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patel Kalpesh Ramanbhai </t>
+  </si>
+  <si>
+    <t>Kalpeshpatel7682@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azadkhadki  </t>
+  </si>
+  <si>
+    <t>Sojitra</t>
+  </si>
+  <si>
+    <t>Malataj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maganbhai Patel </t>
+  </si>
+  <si>
+    <t>Madasnakampa</t>
+  </si>
+  <si>
+    <t>Modasa</t>
+  </si>
+  <si>
+    <t>Madasana</t>
+  </si>
+  <si>
+    <t>Kakadiya Rasik</t>
+  </si>
+  <si>
+    <t>rnkakadiya1@gmail.comr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282 Yogesvar plot panchavada </t>
+  </si>
+  <si>
+    <t>Jasdan</t>
+  </si>
+  <si>
+    <t>Panchavada</t>
+  </si>
+  <si>
+    <t>નકુમ જગદીશ ભાઈ મોહન ભાઈ</t>
+  </si>
+  <si>
+    <t>jagdishinstrument@gmail.com</t>
+  </si>
+  <si>
+    <t>kenedi, bastend ni bajuma, navi panchayat ni pass ni vadi</t>
+  </si>
+  <si>
+    <t>Kalyanpur</t>
+  </si>
+  <si>
+    <t>Kenedi</t>
+  </si>
+  <si>
+    <t>Babubhai</t>
+  </si>
+  <si>
+    <t>Babubhairudani@gmail.com</t>
+  </si>
+  <si>
+    <t>Nana angiya, Nakhatrana</t>
+  </si>
+  <si>
+    <t>Kachchh</t>
+  </si>
+  <si>
+    <t>Nakhatrana</t>
+  </si>
+  <si>
+    <t>Angiya Nana</t>
+  </si>
+  <si>
+    <t>નકુમ મોહનભાઈ  આણંદભાઈ</t>
+  </si>
+  <si>
+    <t>kamdhenufarm9@gmail.com</t>
+  </si>
+  <si>
+    <t>ગઢકા (નવાપરા)</t>
+  </si>
+  <si>
+    <t>Gadhka</t>
+  </si>
+  <si>
+    <t>Arvindbhai Gordhanbhai patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ketanpatel382002@gmail.com </t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Gamdi (CT)</t>
+  </si>
+  <si>
+    <t>Bhatu jayesh kesurbhai</t>
+  </si>
+  <si>
+    <t>Jayesh.Bhatu111@gmail.com</t>
+  </si>
+  <si>
+    <t>To-Deshinga ta-manavadar dist-junagadh</t>
+  </si>
+  <si>
+    <t>Junagadh</t>
+  </si>
+  <si>
+    <t>Manavadar</t>
+  </si>
+  <si>
+    <t>Deshinga</t>
+  </si>
+  <si>
+    <t>Megha Ved</t>
+  </si>
+  <si>
+    <t>Patel dilipbhai</t>
+  </si>
+  <si>
+    <t>pateldilipbhai114@gmail.com</t>
+  </si>
+  <si>
+    <t>Mu haripar to dhangadh di s nagar</t>
+  </si>
+  <si>
+    <t>Haripur</t>
+  </si>
+  <si>
+    <t>બોડાણા રજૂજી વરવજી</t>
+  </si>
+  <si>
+    <t>rvbodana@gmail.com</t>
+  </si>
+  <si>
+    <t>જુની શેઢા વી</t>
+  </si>
+  <si>
+    <t>Mahesana</t>
+  </si>
+  <si>
+    <t>Juni Sedhavi</t>
+  </si>
+  <si>
+    <t>Matha raja parmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To sarsava ta veravl </t>
+  </si>
+  <si>
+    <t>Patan-Veraval</t>
+  </si>
+  <si>
+    <t>Sarasva</t>
+  </si>
+  <si>
+    <t>Gg</t>
+  </si>
+  <si>
+    <t>Hsj@gmail.com</t>
+  </si>
+  <si>
+    <t>Nitin Padariya</t>
+  </si>
+  <si>
+    <t>nitin.wimc@gmail.com</t>
+  </si>
+  <si>
+    <t>Sika</t>
+  </si>
+  <si>
+    <t>Dhansura</t>
+  </si>
+  <si>
+    <t>Shika</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Rajeshsanjaliya555@gmail.com</t>
+  </si>
+  <si>
+    <t>thanagalol</t>
+  </si>
+  <si>
+    <t>Jetpur</t>
+  </si>
+  <si>
+    <t>Thana Galol</t>
+  </si>
+  <si>
+    <t>Patel Ravi</t>
+  </si>
+  <si>
+    <t>ravipatelceo001@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273, patel fali, hajipur, Himatnagar </t>
+  </si>
+  <si>
+    <t>Himatnagar</t>
+  </si>
+  <si>
+    <t>Hajipur</t>
+  </si>
+  <si>
+    <t>Rahul Gandhi</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Morbi</t>
+  </si>
+  <si>
+    <t>Chakampar</t>
+  </si>
+  <si>
+    <t>પરમાર ઉદાજી ખોડાજી</t>
+  </si>
+  <si>
+    <t>ukparamar1307@gmail.com</t>
+  </si>
+  <si>
+    <t>મુ:- દેવપુરા, તાબે:- દેવકરણ ના મુવાડા</t>
+  </si>
+  <si>
+    <t>Gandhinagar</t>
+  </si>
+  <si>
+    <t>Dehgam</t>
+  </si>
+  <si>
+    <t>Devkaran Na Muvada</t>
+  </si>
+  <si>
+    <t>બુહા રાજેશ ભાઈ</t>
+  </si>
+  <si>
+    <t>અવતડીયા</t>
+  </si>
+  <si>
+    <t>Avatadiya Mota</t>
+  </si>
+  <si>
+    <t>Prakash Rangani</t>
+  </si>
+  <si>
+    <t>ranganiprakash97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At and post Kanakpar </t>
+  </si>
+  <si>
+    <t>Abdasa</t>
+  </si>
+  <si>
+    <t>Kanakpar</t>
+  </si>
+  <si>
+    <t>DINESHBHAI B PATEL</t>
+  </si>
+  <si>
+    <t>dineshdeloli123@gmail.com</t>
+  </si>
+  <si>
+    <t>32/sahjanand society kansa road. Visanagar</t>
+  </si>
+  <si>
+    <t>Deloli</t>
+  </si>
+  <si>
+    <t>જયજ</t>
+  </si>
+  <si>
+    <t>102 - ઘ</t>
+  </si>
+  <si>
+    <t>The Dangs</t>
+  </si>
+  <si>
+    <t>Naresh Makwana</t>
+  </si>
+  <si>
+    <t>nareshmakwana@icloud.com</t>
+  </si>
+  <si>
+    <t>Mouje Degam ,S.no.2412-2424</t>
+  </si>
+  <si>
+    <t>Navsari</t>
+  </si>
+  <si>
+    <t>Chikhli</t>
+  </si>
+  <si>
+    <t>Degam</t>
+  </si>
+  <si>
+    <t>Gaurav Patel</t>
+  </si>
+  <si>
+    <t>allbysagro@outlook.com</t>
+  </si>
+  <si>
+    <t>Bh Library</t>
+  </si>
+  <si>
+    <t>Bayad</t>
+  </si>
+  <si>
+    <t>Demai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megha </t>
+  </si>
+  <si>
+    <t>test society</t>
+  </si>
+  <si>
+    <t>Kheda</t>
+  </si>
+  <si>
+    <t>Matar</t>
+  </si>
+  <si>
+    <t>Chanor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">જયેશકુમાર મફતલાલ પટેલ </t>
+  </si>
+  <si>
+    <t>jmpatel30906@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">પુદગામ, તા - વિસનગર, જી - મેહસાણા </t>
+  </si>
+  <si>
+    <t>Visnagar</t>
+  </si>
+  <si>
+    <t>Pudgam</t>
+  </si>
+  <si>
+    <t>ઓડ વિશાલ</t>
+  </si>
+  <si>
+    <t>vishalod54@gmail.com</t>
+  </si>
+  <si>
+    <t>At.Hansalpur Ta.Viramgam Dist.Ahmedabad pin.382150</t>
+  </si>
+  <si>
+    <t>Hansalpur Sereshvar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ઘનશ્યામ ભાઈ રાયસંગ ભાઈ ધરુવાડિયા </t>
+  </si>
+  <si>
+    <t xml:space="preserve">madhavsajivfarm@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ધુમઠ, જૈન દેરાસર બાજુ માં </t>
+  </si>
+  <si>
+    <t>Dhrumath</t>
+  </si>
+  <si>
+    <t>IDPatel</t>
+  </si>
+  <si>
+    <t>idpatel1960@gmail.com</t>
+  </si>
+  <si>
+    <t>29 Mahavir Nagar society B/H Aadarsh highschool Patan</t>
+  </si>
+  <si>
+    <t>Patan</t>
+  </si>
+  <si>
+    <t>Harij</t>
+  </si>
+  <si>
+    <t>Bhalana</t>
+  </si>
+  <si>
+    <t>ઉષા</t>
+  </si>
+  <si>
+    <t>૪, જીવરાજ</t>
+  </si>
+  <si>
+    <t>Limbdi</t>
+  </si>
+  <si>
+    <t>Katariya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaymin Dave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaugangaorganicfarm@gmail.com </t>
+  </si>
+  <si>
+    <t>AT Thanagalol</t>
+  </si>
+  <si>
+    <t>Devki Galol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chirag parmar </t>
+  </si>
+  <si>
+    <t>parmarchirag94594@gmail.com</t>
+  </si>
+  <si>
+    <t>Rampura parmar vas 522</t>
+  </si>
+  <si>
+    <t>Mansa</t>
+  </si>
+  <si>
+    <t>Rampura (M)</t>
+  </si>
+  <si>
+    <t>Raju Balu Parmar</t>
+  </si>
+  <si>
+    <t>rajuparmar9646@gmail.com</t>
+  </si>
+  <si>
+    <t>Balej.porbandar.gujrat</t>
+  </si>
+  <si>
+    <t>Porbandar</t>
+  </si>
+  <si>
+    <t>Balej</t>
+  </si>
+  <si>
     <t>Anubhav Goyal</t>
   </si>
   <si>
@@ -74,13 +698,1210 @@
     <t>12</t>
   </si>
   <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Panch Mahals</t>
-  </si>
-  <si>
     <t>Devgadh Baria</t>
+  </si>
+  <si>
+    <t>જયદીપ</t>
+  </si>
+  <si>
+    <t>Kishorsinh</t>
+  </si>
+  <si>
+    <t>knbarad@gmail.com</t>
+  </si>
+  <si>
+    <t>C-302, Devsangam Apartments</t>
+  </si>
+  <si>
+    <t>Koteshwar (OG)</t>
+  </si>
+  <si>
+    <t>Kalpna patel</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>રાણીપા વિમલકુમાર બાબુલાલ</t>
+  </si>
+  <si>
+    <t>Vimal.ranipa@gmail.com</t>
+  </si>
+  <si>
+    <t>ઝાંઝમેર</t>
+  </si>
+  <si>
+    <t>Dhoraji</t>
+  </si>
+  <si>
+    <t>Zanzmer</t>
+  </si>
+  <si>
+    <t>Gaurang r Patel</t>
+  </si>
+  <si>
+    <t>gaurangpatel9986@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Azad chowk, Kakaparty</t>
+  </si>
+  <si>
+    <t>Nadiad</t>
+  </si>
+  <si>
+    <t>Narsanda</t>
+  </si>
+  <si>
+    <t>Hiteshbhai Jashbhai Patel</t>
+  </si>
+  <si>
+    <t>hp191170@gmail.com</t>
+  </si>
+  <si>
+    <t>Nani Khadki</t>
+  </si>
+  <si>
+    <t>Sundan</t>
+  </si>
+  <si>
+    <t>Laxmanbhai Gabani</t>
+  </si>
+  <si>
+    <t>ljgabani@gmail.com</t>
+  </si>
+  <si>
+    <t>4 Ramkrishna nagar</t>
+  </si>
+  <si>
+    <t>Ankewaliya</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>amitsindhav@yahoo.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, bharat society, jintan road, surendranagar </t>
+  </si>
+  <si>
+    <t>Wadhwan</t>
+  </si>
+  <si>
+    <t>Memka</t>
+  </si>
+  <si>
+    <t>Patel keshabhai somabhai</t>
+  </si>
+  <si>
+    <t>Rajpura mansa gadhinagar gujrat</t>
+  </si>
+  <si>
+    <t>Rajpura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronak Patel </t>
+  </si>
+  <si>
+    <t>ronak0711@gmail.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Ghaghret</t>
+  </si>
+  <si>
+    <t>Pravin chhodavadiya</t>
+  </si>
+  <si>
+    <t>radheart164@gmail.com</t>
+  </si>
+  <si>
+    <t>Amrutvel gir</t>
+  </si>
+  <si>
+    <t>Talala</t>
+  </si>
+  <si>
+    <t>Amrutvel</t>
+  </si>
+  <si>
+    <t>પ્રદીપ જયંતીલાલ બાબરીયા</t>
+  </si>
+  <si>
+    <t>pradip.babaria@gmail.com</t>
+  </si>
+  <si>
+    <t>Behind The New Bus Station Jetpur Road Rajnagar 1</t>
+  </si>
+  <si>
+    <t>Bhutvad</t>
+  </si>
+  <si>
+    <t>Patel Kirankumar Revandas</t>
+  </si>
+  <si>
+    <t>Kirankumar_65@yahoo.com</t>
+  </si>
+  <si>
+    <t>Shah street, At.Khadol(H)</t>
+  </si>
+  <si>
+    <t>Anklav</t>
+  </si>
+  <si>
+    <t>Khadol (Haldari)</t>
+  </si>
+  <si>
+    <t>ચેતનભાઇ ગોપાલભાઈ પ્રજાપતિ</t>
+  </si>
+  <si>
+    <t>cgprajapati9999@gmail.com</t>
+  </si>
+  <si>
+    <t>E-16,luvkush township1, mogari</t>
+  </si>
+  <si>
+    <t>Mogri (OG)</t>
+  </si>
+  <si>
+    <t>પ્રવીણભાઈ વિરસંગભાઈ ચૌધરી</t>
+  </si>
+  <si>
+    <t>pvcyoga66@gmail.com</t>
+  </si>
+  <si>
+    <t>વંદે માતરમ્, સોસાયટી ,પ્રા.શાળા સામે dadhiyal  તા વીસ નગર જી મહેસાણા</t>
+  </si>
+  <si>
+    <t>Dadhiyal</t>
+  </si>
+  <si>
+    <t>મદન શાહ</t>
+  </si>
+  <si>
+    <t>mmmmmsssss2005@gmail.com</t>
+  </si>
+  <si>
+    <t>સરભોણ , તા. બારડોલી , જી. સુરત</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Bardoli</t>
+  </si>
+  <si>
+    <t>Sarbhon</t>
+  </si>
+  <si>
+    <t>ચતરાભાઇ ચૌધરી</t>
+  </si>
+  <si>
+    <t>Chatrabhai chaudhary@gmail.c0m</t>
+  </si>
+  <si>
+    <t>મું.  લિંબાઉ.  તા.  લાખણી. જી. બનાસકાંઠા</t>
+  </si>
+  <si>
+    <t>Banas Kantha</t>
+  </si>
+  <si>
+    <t>Deodar</t>
+  </si>
+  <si>
+    <t>Lembau</t>
+  </si>
+  <si>
+    <t>હેતુ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>હેમંત ગોવિંદભાઇ સુરતી</t>
+  </si>
+  <si>
+    <t>h.surti@yahoo.com</t>
+  </si>
+  <si>
+    <t>surati faliya</t>
+  </si>
+  <si>
+    <t>Chorasi</t>
+  </si>
+  <si>
+    <t>Saroli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">મનિષ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">જામ જોધપુર </t>
+  </si>
+  <si>
+    <t>Jamjodhpur</t>
+  </si>
+  <si>
+    <t>Jamvali</t>
+  </si>
+  <si>
+    <t>PATEL ASHOK KUMAR DHANABHAI</t>
+  </si>
+  <si>
+    <t>ap196759@gmail.com</t>
+  </si>
+  <si>
+    <t>PATEL VAS....AT..PO...RADKA...</t>
+  </si>
+  <si>
+    <t>Vav</t>
+  </si>
+  <si>
+    <t>Radka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">નરેન્દ્રભાઈ હાથીભાઈ સરૈયા </t>
+  </si>
+  <si>
+    <t xml:space="preserve">narendra.saraiya@gmail.com </t>
+  </si>
+  <si>
+    <t>મુ સોમ પીપળીયા</t>
+  </si>
+  <si>
+    <t>Som Pipaliya</t>
+  </si>
+  <si>
+    <t>dsgfd</t>
+  </si>
+  <si>
+    <t>admin@admin.com</t>
+  </si>
+  <si>
+    <t>as dgdsgda</t>
+  </si>
+  <si>
+    <t>Dahod</t>
+  </si>
+  <si>
+    <t>Devgadbaria</t>
+  </si>
+  <si>
+    <t>Bhathwada</t>
+  </si>
+  <si>
+    <t>રતિલાલ સુદાણી</t>
+  </si>
+  <si>
+    <t>groundwater.sudani@gmail.com</t>
+  </si>
+  <si>
+    <t>વિદ્યા ડેરી રોડ, બોરસદ ચોકડી પાસે, આણંદ</t>
+  </si>
+  <si>
+    <t>Mahuva</t>
+  </si>
+  <si>
+    <t>Dudhala No.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATEL HareshKumar Vitthalbhai </t>
+  </si>
+  <si>
+    <t>patelharry108@rediffmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F/333/1Shreenagar Society Mahavirnagar Himatnagar Sabarkantha Gujarat </t>
+  </si>
+  <si>
+    <t>Desasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">પી કે સિંધવ </t>
+  </si>
+  <si>
+    <t>Pksindhav 185@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">મુ:મેમકા  તા :વઢવાણ જી: સુરેન્દ્રનગર </t>
+  </si>
+  <si>
+    <t>Harajivan B Thakkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harjivanthakkar8@gmail.com </t>
+  </si>
+  <si>
+    <t>Sodhav</t>
+  </si>
+  <si>
+    <t>Aman gupta</t>
+  </si>
+  <si>
+    <t>test address</t>
+  </si>
+  <si>
+    <t>Bharuch</t>
+  </si>
+  <si>
+    <t>Jambusar</t>
+  </si>
+  <si>
+    <t>Bhankhetar</t>
+  </si>
+  <si>
+    <t>Parish Prafulbhai patel</t>
+  </si>
+  <si>
+    <t>ram_par3@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ghaluda Faliya , Ena , palsana , surat</t>
+  </si>
+  <si>
+    <t>Palsana</t>
+  </si>
+  <si>
+    <t>Ena</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Dantisana</t>
+  </si>
+  <si>
+    <t>Haresh P Dav3</t>
+  </si>
+  <si>
+    <t>Jp_dave@yahoo.in</t>
+  </si>
+  <si>
+    <t>Satadhar park / 2. "Aastha" Nanavti chok.Near Raiya chokdi.Rajkot 360006</t>
+  </si>
+  <si>
+    <t>Hirapar</t>
+  </si>
+  <si>
+    <t>haresh dave</t>
+  </si>
+  <si>
+    <t>dhairyadaveitsnew@gmail.com</t>
+  </si>
+  <si>
+    <t>Astha, 2-satadhar park, Near nanavati circle, 150 ft ring road</t>
+  </si>
+  <si>
+    <t>Haripar</t>
+  </si>
+  <si>
+    <t>Vipan Patel</t>
+  </si>
+  <si>
+    <t>vipanpatel@gmail.com</t>
+  </si>
+  <si>
+    <t>Madhev pura</t>
+  </si>
+  <si>
+    <t>Idar</t>
+  </si>
+  <si>
+    <t>Jadar</t>
+  </si>
+  <si>
+    <t>નામ</t>
+  </si>
+  <si>
+    <t>પંકજમુખી</t>
+  </si>
+  <si>
+    <t>pankajbhaivpatel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">કલ્પતરૂ </t>
+  </si>
+  <si>
+    <t>Sihor</t>
+  </si>
+  <si>
+    <t>Ambla</t>
+  </si>
+  <si>
+    <t>GOPALBHAI TRAMBADIA</t>
+  </si>
+  <si>
+    <t>gopaltrambadia1234@gmail.com</t>
+  </si>
+  <si>
+    <t>BAHARPARA, SARDARGADH.</t>
+  </si>
+  <si>
+    <t>Sardargadh</t>
+  </si>
+  <si>
+    <t>ભૌમિક પીપરિયા</t>
+  </si>
+  <si>
+    <t>Bhaumik.pipariya@gmail.com</t>
+  </si>
+  <si>
+    <t>ગામ. ખોડાપીપર  તા.પડધરી જીલો.રાજકોટ</t>
+  </si>
+  <si>
+    <t>Paddhari</t>
+  </si>
+  <si>
+    <t>Khodapipar</t>
+  </si>
+  <si>
+    <t>હરેશભાઈ વેકરીયા</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hpvekariya512@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 shilpan Basera Utasvpark  Sadhuvasvani rd Rajkot </t>
+  </si>
+  <si>
+    <t>Upleta</t>
+  </si>
+  <si>
+    <t>Tanasva</t>
+  </si>
+  <si>
+    <t>Chintan Dave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bvb.chintan@gmail.com </t>
+  </si>
+  <si>
+    <t>B-7, Bhavana Flat, College Road, Nadiad</t>
+  </si>
+  <si>
+    <t>PARSHOTTAM POPAT DONGA</t>
+  </si>
+  <si>
+    <t>PPDONGA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>2, Aatithya Society,</t>
+  </si>
+  <si>
+    <t>Sama (OG)</t>
+  </si>
+  <si>
+    <t>Dixitbhai Ambalal patel</t>
+  </si>
+  <si>
+    <t>dixit241965@gmail.com</t>
+  </si>
+  <si>
+    <t>Ugamanipati Pati</t>
+  </si>
+  <si>
+    <t>Manund</t>
+  </si>
+  <si>
+    <t>રાકેશ</t>
+  </si>
+  <si>
+    <t>ritzcommu@gmail.com</t>
+  </si>
+  <si>
+    <t>SHIVAM C</t>
+  </si>
+  <si>
+    <t>Ambada</t>
+  </si>
+  <si>
+    <t>Devang Mendapara</t>
+  </si>
+  <si>
+    <t>devangmendapara@gmail.com</t>
+  </si>
+  <si>
+    <t>plot no 7 "sahajanand", samanvay society</t>
+  </si>
+  <si>
+    <t>Ghanteshvar (CT)</t>
+  </si>
+  <si>
+    <t>Nirmal</t>
+  </si>
+  <si>
+    <t>nirmalmali20@gmail.com</t>
+  </si>
+  <si>
+    <t>5160, soniwad near anajmarket dahod</t>
+  </si>
+  <si>
+    <t>Dohad (OG) (Ward 15)</t>
+  </si>
+  <si>
+    <t>Siddharth sudhirbhai priyadarshi</t>
+  </si>
+  <si>
+    <t>sidrampura@gmail.com</t>
+  </si>
+  <si>
+    <t>Rohit Vas, At Rampura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">વિશાલ ચાવડા </t>
+  </si>
+  <si>
+    <t>vishaldchavda@gmail.com</t>
+  </si>
+  <si>
+    <t>OFFICE NO 219, FOUR PLUS COMPLEX, SARDAR NAGAR MAIN ROAD, ASHTRON CHOWK,</t>
+  </si>
+  <si>
+    <t>Bedi (OG)</t>
+  </si>
+  <si>
+    <t>Andhaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagdish R Patel </t>
+  </si>
+  <si>
+    <t>Jagdish2k@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirupati Balaji Nursery farm , challala dhari Highway, village parabdi, Taluka Dhari </t>
+  </si>
+  <si>
+    <t>Amreli</t>
+  </si>
+  <si>
+    <t>Dhari</t>
+  </si>
+  <si>
+    <t>Parbadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vipu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">પટેલ વાસ </t>
+  </si>
+  <si>
+    <t>Kalol</t>
+  </si>
+  <si>
+    <t>Vadsar</t>
+  </si>
+  <si>
+    <t>વિનોદ ભાઈ જસરાજ ભાઈ વરમોરા</t>
+  </si>
+  <si>
+    <t>21, ઉમિયા પાર્ક . હળવદ રોડ.ધ્રાગધ્રા</t>
+  </si>
+  <si>
+    <t>રજનીકાંત કરશનભાઇ ખીરસરિયા</t>
+  </si>
+  <si>
+    <t xml:space="preserve">રજનીકાંત કરસનભાઈ ખીરસરિયા ગામ મોરઝર </t>
+  </si>
+  <si>
+    <t>Bhanvad</t>
+  </si>
+  <si>
+    <t>Morjhar</t>
+  </si>
+  <si>
+    <t>VALJI</t>
+  </si>
+  <si>
+    <t>ahirvalji@gmail.com</t>
+  </si>
+  <si>
+    <t>RAYDHANPAR</t>
+  </si>
+  <si>
+    <t>Bhuj</t>
+  </si>
+  <si>
+    <t>Raydhanpar</t>
+  </si>
+  <si>
+    <t>Hitesh thummar</t>
+  </si>
+  <si>
+    <t>hiteshthummar11@gmail.com</t>
+  </si>
+  <si>
+    <t>Chitrakut, shed road ,shed no 6,kotadasangani , pin 360030</t>
+  </si>
+  <si>
+    <t>Kotda Sangani</t>
+  </si>
+  <si>
+    <t>Solanki parth ramsinh</t>
+  </si>
+  <si>
+    <t>Solankirparth1234@gmail.com</t>
+  </si>
+  <si>
+    <t>at-shiyapura</t>
+  </si>
+  <si>
+    <t>Shiyapur</t>
+  </si>
+  <si>
+    <t>Mahebubali Masi</t>
+  </si>
+  <si>
+    <t>Maherpura</t>
+  </si>
+  <si>
+    <t>નરોત્તમ ભાઈ રૂડા ભાઈ ભાડજા</t>
+  </si>
+  <si>
+    <t>narottambhaibhadja@gmail.com</t>
+  </si>
+  <si>
+    <t>ઉમિયા નગર પટેલ સમાજ ની બાજુમાં</t>
+  </si>
+  <si>
+    <t>Malia</t>
+  </si>
+  <si>
+    <t>Pikhor</t>
+  </si>
+  <si>
+    <t>Kalpesh chaudhari</t>
+  </si>
+  <si>
+    <t>ckalpeshbhai@gmail.com</t>
+  </si>
+  <si>
+    <t>valaganthvas</t>
+  </si>
+  <si>
+    <t>Boriavi</t>
+  </si>
+  <si>
+    <t>વૈધ જીતુભાઇ પટેલ</t>
+  </si>
+  <si>
+    <t>Kayakalp_deesa@yahoo.in</t>
+  </si>
+  <si>
+    <t>નવું બસ સ્ટેન્ડ.આદિત્ય શોપિંગ.</t>
+  </si>
+  <si>
+    <t>Deesa</t>
+  </si>
+  <si>
+    <t>Rasana Mota</t>
+  </si>
+  <si>
+    <t>Ashok n patel</t>
+  </si>
+  <si>
+    <t>ashokpatel98333@gmail.com</t>
+  </si>
+  <si>
+    <t>At post vanjar taluka bhiloda district .aravali utar Gujarat pin no 383250</t>
+  </si>
+  <si>
+    <t>Bhiloda</t>
+  </si>
+  <si>
+    <t>Vanzar</t>
+  </si>
+  <si>
+    <t>વાલજી</t>
+  </si>
+  <si>
+    <t>SRC. Bungalow No 21</t>
+  </si>
+  <si>
+    <t>પટેલ નવીનચંદ્ર નારાયણભાઈ પટેલ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> મુ, પંઢરપુર તાલુકો કડી જીલ્લો મહેસાણા</t>
+  </si>
+  <si>
+    <t>Kadi</t>
+  </si>
+  <si>
+    <t>Korda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> રાઘવ વલ્લભભાઈ ઘેલાણી</t>
+  </si>
+  <si>
+    <t>Ghelani.raghav@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajgadh</t>
+  </si>
+  <si>
+    <t>Hitesh Vora</t>
+  </si>
+  <si>
+    <t>hiteshjvora@gmail.com</t>
+  </si>
+  <si>
+    <t>Shubham Farm, At Kumbhardi Ta Bhachau Dist Kutch Gujarat</t>
+  </si>
+  <si>
+    <t>Bhachau</t>
+  </si>
+  <si>
+    <t>Kumbhardi</t>
+  </si>
+  <si>
+    <t>હિમાંશુ પટેલ</t>
+  </si>
+  <si>
+    <t>prekshaexim71077@gmail.com</t>
+  </si>
+  <si>
+    <t>C-701, Galaxy Enclave,Nr.Galaxy Circle, Greencity Road,Pal, SURAT</t>
+  </si>
+  <si>
+    <t>Olpad</t>
+  </si>
+  <si>
+    <t>Achharan</t>
+  </si>
+  <si>
+    <t>એગ્રી બીઝનેસ સેન્ટર</t>
+  </si>
+  <si>
+    <t>agribusinesscentre_zanor@yahoo.com</t>
+  </si>
+  <si>
+    <t>ઝણોર</t>
+  </si>
+  <si>
+    <t>Jhanor</t>
+  </si>
+  <si>
+    <t>ઘનશ્યામભાઈ વિઠલભાઈ પટેલ</t>
+  </si>
+  <si>
+    <t>Vidhatajd@gmail.com</t>
+  </si>
+  <si>
+    <t>5, અર્ચન પાર્ક,પૂજન પાર્કની બાજુમાં, પીજ રોડ, નડીઆદ-2</t>
+  </si>
+  <si>
+    <t>Kharenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sfd g</t>
+  </si>
+  <si>
+    <t>a tets</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>Nandod</t>
+  </si>
+  <si>
+    <t>Baman Faliya</t>
+  </si>
+  <si>
+    <t>Smt N M Padalia Pharmacy college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dipika4israni@gmail.com </t>
+  </si>
+  <si>
+    <t>Smt N. M. Padalia Pharmacy College</t>
+  </si>
+  <si>
+    <t>Changodar (OG)</t>
+  </si>
+  <si>
+    <t>જનકકુમાર</t>
+  </si>
+  <si>
+    <t>ડિપાર્ટમેન્ટ ઓફ એગ્રિકલ્ચર, ગુજરાત સરકાર</t>
+  </si>
+  <si>
+    <t>Harni (OG)</t>
+  </si>
+  <si>
+    <t>Ecotech Agri And Dairy care</t>
+  </si>
+  <si>
+    <t>ECOTECHGREENS@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>203,CITY CANTER ARCADE NR.SRP CAMPUS,NARODA</t>
+  </si>
+  <si>
+    <t>Kathwada (OG)</t>
+  </si>
+  <si>
+    <t>Hardevsinh jadeja</t>
+  </si>
+  <si>
+    <t>marutistudio47@gmail.com</t>
+  </si>
+  <si>
+    <t>Kaliyabid bhavnagar</t>
+  </si>
+  <si>
+    <t>Sidsar (CT)</t>
+  </si>
+  <si>
+    <t>Chhagan Patel</t>
+  </si>
+  <si>
+    <t>C. mepani 011@gmail.com</t>
+  </si>
+  <si>
+    <t>Banud</t>
+  </si>
+  <si>
+    <t>Bajud</t>
+  </si>
+  <si>
+    <t>Bila</t>
+  </si>
+  <si>
+    <t>Ayush</t>
+  </si>
+  <si>
+    <t>jkdzire@gmail.com</t>
+  </si>
+  <si>
+    <t>Kalavad</t>
+  </si>
+  <si>
+    <t>Machhalivad</t>
+  </si>
+  <si>
+    <t>ગાંધી ખીમજી દામજી માંંડવી કચ્છ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">નિરંજન માર્ગ મોચી બજાર માંંડવી </t>
+  </si>
+  <si>
+    <t>Mandvi (Rural)</t>
+  </si>
+  <si>
+    <t>સ્વયુર આયુર્વેદા</t>
+  </si>
+  <si>
+    <t>sanjuvpatel@gmail.com</t>
+  </si>
+  <si>
+    <t>C/9 LAXMIKUNJ SOCIETY, PART-2, OPP. T. P. GARDEN, NEW SAMA ROAD</t>
+  </si>
+  <si>
+    <t>અક્ષર ગૃહ ઉદ્યોગ</t>
+  </si>
+  <si>
+    <t>sonalpujara59917@gmail.com</t>
+  </si>
+  <si>
+    <t>Kanbha (OG)</t>
+  </si>
+  <si>
+    <t>Nisarg Enterprise</t>
+  </si>
+  <si>
+    <t>peekaysha@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>106/884 Nirmal Appartment,Nr.Jaymangal BRTS, Naranpura, Ahmedabad</t>
+  </si>
+  <si>
+    <t>Aslali</t>
+  </si>
+  <si>
+    <t>Deven</t>
+  </si>
+  <si>
+    <t>DAAC1712@gmail.com</t>
+  </si>
+  <si>
+    <t>Deven Enterprise</t>
+  </si>
+  <si>
+    <t>Vemali (OG)</t>
+  </si>
+  <si>
+    <t>drkamaltaori</t>
+  </si>
+  <si>
+    <t>drkamaltaori@gmail.com</t>
+  </si>
+  <si>
+    <t>Taori</t>
+  </si>
+  <si>
+    <t>Amod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR GN KAKADIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaybharaticsc@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District Community Science Center Surat </t>
+  </si>
+  <si>
+    <t>Bhatha (OG)</t>
+  </si>
+  <si>
+    <t>Hitesh parikh</t>
+  </si>
+  <si>
+    <t>ar.hpparikh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F10 Revati Ramdevnagar satellite ahmedabad </t>
+  </si>
+  <si>
+    <t>Navarangpura</t>
+  </si>
+  <si>
+    <t>jhrjdksfgds</t>
+  </si>
+  <si>
+    <t>Davda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">વિમલ ભાઈ મહેન્દ્ર ભાઈ પટેલ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">patelvimal6291@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">129, અંબિકા વિલા સુરત ઓલપાડ મેઇન રોડ જોથાણ, સુરત. </t>
+  </si>
+  <si>
+    <t>Sonsak</t>
+  </si>
+  <si>
+    <t>Aayu</t>
+  </si>
+  <si>
+    <t>10, abc</t>
+  </si>
+  <si>
+    <t>Kandach (Inami )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">दिगंबर </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parimalsai@gmail.com </t>
+  </si>
+  <si>
+    <t>Department of botany, Savitribai phule punpune ⁸</t>
+  </si>
+  <si>
+    <t>Bodal</t>
+  </si>
+  <si>
+    <t>Green Apple Agro Agency</t>
+  </si>
+  <si>
+    <t>Katchhi samaj wadi , near old jilaa panchayat himatnagar</t>
+  </si>
+  <si>
+    <t>Ilol</t>
+  </si>
+  <si>
+    <t>Yuvarajsinh jethwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ykjethwa999@gmai.com </t>
+  </si>
+  <si>
+    <t>Morana</t>
+  </si>
+  <si>
+    <t>Chavda mayursinh</t>
+  </si>
+  <si>
+    <t>chavdamayursinh1997@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> નવી પાણી ની ટાંકી ની સામે દરબારગઢ માણેકપુર</t>
+  </si>
+  <si>
+    <t>Manekpur Makakhad</t>
+  </si>
+  <si>
+    <t>Able Exports</t>
+  </si>
+  <si>
+    <t>pravinpatel6729@gmail.com</t>
+  </si>
+  <si>
+    <t>Able exports.14,savoday estate,Nr.Anand hotel.Isanpur .Abmedabad</t>
+  </si>
+  <si>
+    <t>Ghuma (OG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillway </t>
+  </si>
+  <si>
+    <t>sureshrpatel7979@gmail.com</t>
+  </si>
+  <si>
+    <t>Hillway</t>
+  </si>
+  <si>
+    <t>Sikara</t>
+  </si>
+  <si>
+    <t>RajaFarm Dhoraji</t>
+  </si>
+  <si>
+    <t>hrpatel842@gmail.com</t>
+  </si>
+  <si>
+    <t>Moti Parabdi</t>
+  </si>
+  <si>
+    <t>Manoj Kumar Soni</t>
+  </si>
+  <si>
+    <t>manojsoni.lko@gmail.com</t>
+  </si>
+  <si>
+    <t>Happy Harvest Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Khandhali</t>
+  </si>
+  <si>
+    <t>RUCHIT GARG</t>
+  </si>
+  <si>
+    <t>ruchit@harvesting.co</t>
+  </si>
+  <si>
+    <t>harvesting India pvt Lrd</t>
+  </si>
+  <si>
+    <t>Ankevaliya</t>
+  </si>
+  <si>
+    <t>Management Agriculture Association  MAA    NGO</t>
+  </si>
+  <si>
+    <t>maamanagement@gmail.com</t>
+  </si>
+  <si>
+    <t>Management Agriculture Association</t>
+  </si>
+  <si>
+    <t>Chokdi</t>
+  </si>
+  <si>
+    <t>Bolundra (Ruvech)</t>
+  </si>
+  <si>
+    <t>U S Enterprise</t>
+  </si>
+  <si>
+    <t>usenterprise3@gmail.com</t>
+  </si>
+  <si>
+    <t>Shantikunj soc. Karelibaugh, vadodara</t>
+  </si>
+  <si>
+    <t>Government Ayurveda pharmacy</t>
+  </si>
+  <si>
+    <t>Gaprajpipla@gmail.com</t>
+  </si>
+  <si>
+    <t>Vadiya Palace, Rajpipla</t>
+  </si>
+  <si>
+    <t>Vadia</t>
+  </si>
+  <si>
+    <t>Ghanshyam Patel</t>
+  </si>
+  <si>
+    <t>patel.drg@gmail.com</t>
+  </si>
+  <si>
+    <t>803, Satya, Shreem Galaxy, Vasna Bhayli Canal Road, Vadodara</t>
+  </si>
+  <si>
+    <t>Bhayli (OG)</t>
+  </si>
+  <si>
+    <t>કરણસિંહ એમ જાદવ</t>
+  </si>
+  <si>
+    <t>karansinhjadav17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> વસ્તડી દલવાડી સમાજ ની વાડી પાસે</t>
+  </si>
+  <si>
+    <t>Vastadi</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Bhagadio</t>
+  </si>
+  <si>
+    <t>શ્રી કૃષિમંગલ ફર્ટીલાઈઝસૅ એન્ડ કેમિકલ્સ</t>
+  </si>
+  <si>
+    <t>skfc2410@gmail.com</t>
+  </si>
+  <si>
+    <t>મુ.પો વેલંજા,તા.કામરેજ,જી.સુરત</t>
+  </si>
+  <si>
+    <t>Velanja</t>
+  </si>
+  <si>
+    <t>Amritanjali ayurved opc pvt Ltd</t>
+  </si>
+  <si>
+    <t>Amritanjaliayurved2@gmail.com</t>
+  </si>
+  <si>
+    <t>9 polo ground saheli nagar udaipur</t>
+  </si>
+  <si>
+    <t>Anadej</t>
+  </si>
+  <si>
+    <t>Vastav pharma</t>
+  </si>
+  <si>
+    <t>vastavpharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Visnagar (Rural)</t>
+  </si>
+  <si>
+    <t>Tej</t>
+  </si>
+  <si>
+    <t>Tej@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -462,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O121"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="15" width="30" customWidth="1"/>
@@ -535,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="G2">
-        <v>8448208954</v>
+        <v>9825261400</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -549,11 +2370,5316 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="N2">
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44333.70017361111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>9879434102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3">
+        <v>388325</v>
+      </c>
+      <c r="N3">
+        <v>9879434102</v>
+      </c>
+      <c r="O3" s="2">
+        <v>44334.42491898148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>9825900012</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <v>360003</v>
+      </c>
+      <c r="N4">
+        <v>9825900012</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44333.64693287037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>9104141312</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>9104141312</v>
+      </c>
+      <c r="O5" s="2">
+        <v>44333.60234953703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>9328458001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44333.568402777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>9825061139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>9825061139</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44330.36752314815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>9824165525</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8">
+        <v>9824165525</v>
+      </c>
+      <c r="O8" s="2">
+        <v>44334.2071875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>9106002390</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <v>363310</v>
+      </c>
+      <c r="N9">
+        <v>9106002390</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44333.65759259259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10">
+        <v>8870683042</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10">
+        <v>8870683041</v>
+      </c>
+      <c r="O10" s="2">
+        <v>44332.29295138889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11">
+        <v>9426907115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11">
+        <v>361004</v>
+      </c>
+      <c r="N11">
+        <v>9426907115</v>
+      </c>
+      <c r="O11" s="2">
+        <v>44334.479374999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
+        <v>9978973991</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12">
+        <v>363650</v>
+      </c>
+      <c r="N12">
+        <v>9979873991</v>
+      </c>
+      <c r="O12" s="2">
+        <v>44334.142592592594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>9106987327</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13">
+        <v>387220</v>
+      </c>
+      <c r="N13">
+        <v>9726074896</v>
+      </c>
+      <c r="O13" s="2">
+        <v>44334.18490740741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14">
+        <v>6351478053</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14">
+        <v>383276</v>
+      </c>
+      <c r="O14" s="2">
+        <v>44336.191875000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15">
+        <v>9978797047</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15">
+        <v>360040</v>
+      </c>
+      <c r="N15">
+        <v>9978797047</v>
+      </c>
+      <c r="O15" s="2">
+        <v>44334.11765046296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16">
+        <v>9428318632</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>361315</v>
+      </c>
+      <c r="O16" s="2">
+        <v>44336.327326388884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17">
+        <v>9925313253</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17">
+        <v>370675</v>
+      </c>
+      <c r="N17">
+        <v>9925313253</v>
+      </c>
+      <c r="O17" s="2">
+        <v>44334.6796875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18">
+        <v>9925992211</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18">
+        <v>961320</v>
+      </c>
+      <c r="N18">
+        <v>9925992211</v>
+      </c>
+      <c r="O18" s="2">
+        <v>44336.40994212963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19">
+        <v>7801956851</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19">
+        <v>388001</v>
+      </c>
+      <c r="N19">
+        <v>7801956851</v>
+      </c>
+      <c r="O19" s="2">
+        <v>44334.08998842593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20">
+        <v>9925574509</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20">
+        <v>362620</v>
+      </c>
+      <c r="N20">
+        <v>9925574509</v>
+      </c>
+      <c r="O20" s="2">
+        <v>44334.22368055556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21">
+        <v>9724016075</v>
+      </c>
+      <c r="O21" s="2">
+        <v>44333.42186342593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22">
+        <v>9558419901</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22">
+        <v>363310</v>
+      </c>
+      <c r="N22">
+        <v>9558419901</v>
+      </c>
+      <c r="O22" s="2">
+        <v>44334.12123842593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23">
+        <v>7990622342</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23">
+        <v>382705</v>
+      </c>
+      <c r="N23">
+        <v>7990622342</v>
+      </c>
+      <c r="O23" s="2">
+        <v>44334.07203703704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24">
+        <v>7016192288</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24">
+        <v>362255</v>
+      </c>
+      <c r="N24">
+        <v>9428575616</v>
+      </c>
+      <c r="O24" s="2">
+        <v>44335.11366898148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25">
+        <v>6437936985</v>
+      </c>
+      <c r="N25">
+        <v>5424336985</v>
+      </c>
+      <c r="O25" s="2">
+        <v>44330.36813657408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26">
+        <v>8732920010</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" t="s">
+        <v>136</v>
+      </c>
+      <c r="N26">
+        <v>8732920010</v>
+      </c>
+      <c r="O26" s="2">
+        <v>44334.164814814816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27">
+        <v>9586624833</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27">
+        <v>360370</v>
+      </c>
+      <c r="O27" s="2">
+        <v>44334.71420138889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28">
+        <v>9824431008</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L28" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28">
+        <v>383120</v>
+      </c>
+      <c r="N28">
+        <v>9824431008</v>
+      </c>
+      <c r="O28" s="2">
+        <v>44334.33034722222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29">
+        <v>7485961230</v>
+      </c>
+      <c r="H29" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>149</v>
+      </c>
+      <c r="L29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>44333.61979166667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30">
+        <v>9586624833</v>
+      </c>
+      <c r="H30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30">
+        <v>360370</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44334.71420138889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31">
+        <v>9727847211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" t="s">
+        <v>155</v>
+      </c>
+      <c r="L31" t="s">
+        <v>156</v>
+      </c>
+      <c r="M31">
+        <v>382308</v>
+      </c>
+      <c r="N31">
+        <v>9727847211</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44336.326203703706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32">
+        <v>9712483473</v>
+      </c>
+      <c r="H32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" t="s">
+        <v>159</v>
+      </c>
+      <c r="M32">
+        <v>362110</v>
+      </c>
+      <c r="N32">
+        <v>9712483473</v>
+      </c>
+      <c r="O32" s="2">
+        <v>44335.57564814815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33">
+        <v>9408927264</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33">
+        <v>370650</v>
+      </c>
+      <c r="N33">
+        <v>9408927264</v>
+      </c>
+      <c r="O33" s="2">
+        <v>44334.121516203704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34">
+        <v>9428460961</v>
+      </c>
+      <c r="H34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" t="s">
+        <v>168</v>
+      </c>
+      <c r="M34">
+        <v>384001</v>
+      </c>
+      <c r="N34">
+        <v>9428460961</v>
+      </c>
+      <c r="O34" s="2">
+        <v>44334.25085648148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35">
+        <v>1234567799</v>
+      </c>
+      <c r="H35" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+      <c r="N35">
+        <v>1234567801</v>
+      </c>
+      <c r="O35" s="2">
+        <v>44333.41290509259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36">
+        <v>9371004061</v>
+      </c>
+      <c r="H36" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" t="s">
+        <v>176</v>
+      </c>
+      <c r="L36" t="s">
+        <v>177</v>
+      </c>
+      <c r="M36">
+        <v>396521</v>
+      </c>
+      <c r="N36">
+        <v>9371004061</v>
+      </c>
+      <c r="O36" s="2">
+        <v>44333.68387731482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37">
+        <v>9687307006</v>
+      </c>
+      <c r="H37" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" t="s">
+        <v>182</v>
+      </c>
+      <c r="M37">
+        <v>383330</v>
+      </c>
+      <c r="N37">
+        <v>9687307006</v>
+      </c>
+      <c r="O37" s="2">
+        <v>44334.09354166666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38">
+        <v>7894561234</v>
+      </c>
+      <c r="H38" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>185</v>
+      </c>
+      <c r="K38" t="s">
+        <v>186</v>
+      </c>
+      <c r="L38" t="s">
+        <v>187</v>
+      </c>
+      <c r="N38">
+        <v>7894561237</v>
+      </c>
+      <c r="O38" s="2">
+        <v>44333.450011574074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39">
+        <v>9825163364</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" t="s">
+        <v>191</v>
+      </c>
+      <c r="L39" t="s">
+        <v>192</v>
+      </c>
+      <c r="M39">
+        <v>360001</v>
+      </c>
+      <c r="N39">
+        <v>9825163364</v>
+      </c>
+      <c r="O39" s="2">
+        <v>44335.2683912037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40">
+        <v>7698064800</v>
+      </c>
+      <c r="H40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
+        <v>196</v>
+      </c>
+      <c r="M40">
+        <v>382150</v>
+      </c>
+      <c r="N40">
+        <v>7698064800</v>
+      </c>
+      <c r="O40" s="2">
+        <v>44334.294965277775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41">
+        <v>9979380504</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" t="s">
+        <v>200</v>
+      </c>
+      <c r="M41">
+        <v>363310</v>
+      </c>
+      <c r="N41">
+        <v>9979380504</v>
+      </c>
+      <c r="O41" s="2">
+        <v>44334.096608796295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42">
+        <v>9427362853</v>
+      </c>
+      <c r="H42" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s">
+        <v>206</v>
+      </c>
+      <c r="M42">
+        <v>384245</v>
+      </c>
+      <c r="N42">
+        <v>9427362853</v>
+      </c>
+      <c r="O42" s="2">
+        <v>44336.31013888889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43">
+        <v>2791279256</v>
+      </c>
+      <c r="H43" t="s">
+        <v>208</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L43" t="s">
+        <v>210</v>
+      </c>
+      <c r="N43">
+        <v>2791279256</v>
+      </c>
+      <c r="O43" s="2">
+        <v>44331.33434027778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44">
+        <v>9879184002</v>
+      </c>
+      <c r="H44" t="s">
+        <v>213</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" t="s">
+        <v>140</v>
+      </c>
+      <c r="L44" t="s">
+        <v>214</v>
+      </c>
+      <c r="M44">
+        <v>360360</v>
+      </c>
+      <c r="N44">
+        <v>9879184002</v>
+      </c>
+      <c r="O44" s="2">
+        <v>44334.18685185185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45">
+        <v>6353861518</v>
+      </c>
+      <c r="H45" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" t="s">
+        <v>218</v>
+      </c>
+      <c r="L45" t="s">
+        <v>219</v>
+      </c>
+      <c r="M45">
+        <v>382845</v>
+      </c>
+      <c r="N45">
+        <v>8238049333</v>
+      </c>
+      <c r="O45" s="2">
+        <v>44336.30640046296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46">
+        <v>7284003689</v>
+      </c>
+      <c r="H46" t="s">
+        <v>222</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>223</v>
+      </c>
+      <c r="K46" t="s">
+        <v>223</v>
+      </c>
+      <c r="L46" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46">
+        <v>362230</v>
+      </c>
+      <c r="N46">
+        <v>7284003689</v>
+      </c>
+      <c r="O46" s="2">
+        <v>44336.22222222222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47">
+        <v>8448208954</v>
+      </c>
+      <c r="H47" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" t="s">
+        <v>228</v>
+      </c>
+      <c r="N47">
         <v>1234567889</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O47" s="2">
         <v>NaN</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48">
+        <v>1199119911</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>1199119911</v>
+      </c>
+      <c r="O48" s="2">
+        <v>44333.27921296297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49">
+        <v>9106526307</v>
+      </c>
+      <c r="H49" t="s">
+        <v>232</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>154</v>
+      </c>
+      <c r="K49" t="s">
+        <v>154</v>
+      </c>
+      <c r="L49" t="s">
+        <v>233</v>
+      </c>
+      <c r="M49">
+        <v>380005</v>
+      </c>
+      <c r="N49">
+        <v>9106526307</v>
+      </c>
+      <c r="O49" s="2">
+        <v>44334.200011574074</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50">
+        <v>7600941552</v>
+      </c>
+      <c r="H50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" t="s">
+        <v>84</v>
+      </c>
+      <c r="L50" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50">
+        <v>383276</v>
+      </c>
+      <c r="N50">
+        <v>7600941552</v>
+      </c>
+      <c r="O50" s="2">
+        <v>44336.18938657407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51">
+        <v>9408007710</v>
+      </c>
+      <c r="H51" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" t="s">
+        <v>239</v>
+      </c>
+      <c r="L51" t="s">
+        <v>240</v>
+      </c>
+      <c r="M51">
+        <v>360440</v>
+      </c>
+      <c r="N51">
+        <v>9408007710</v>
+      </c>
+      <c r="O51" s="2">
+        <v>44334.21413194445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52">
+        <v>9825821631</v>
+      </c>
+      <c r="H52" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>185</v>
+      </c>
+      <c r="K52" t="s">
+        <v>244</v>
+      </c>
+      <c r="L52" t="s">
+        <v>245</v>
+      </c>
+      <c r="M52">
+        <v>387345</v>
+      </c>
+      <c r="N52">
+        <v>9825821631</v>
+      </c>
+      <c r="O52" s="2">
+        <v>44334.1703587963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>246</v>
+      </c>
+      <c r="F53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53">
+        <v>9638281751</v>
+      </c>
+      <c r="H53" t="s">
+        <v>248</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>249</v>
+      </c>
+      <c r="M53">
+        <v>388305</v>
+      </c>
+      <c r="N53">
+        <v>8780636159</v>
+      </c>
+      <c r="O53" s="2">
+        <v>44334.11751157408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54">
+        <v>9328458001</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" t="s">
+        <v>44</v>
+      </c>
+      <c r="O54" s="2">
+        <v>44333.568402777775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>250</v>
+      </c>
+      <c r="F55" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55">
+        <v>9638108760</v>
+      </c>
+      <c r="H55" t="s">
+        <v>252</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55" t="s">
+        <v>209</v>
+      </c>
+      <c r="L55" t="s">
+        <v>253</v>
+      </c>
+      <c r="M55">
+        <v>363421</v>
+      </c>
+      <c r="N55">
+        <v>9638108760</v>
+      </c>
+      <c r="O55" s="2">
+        <v>44334.40809027778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>254</v>
+      </c>
+      <c r="F56" t="s">
+        <v>255</v>
+      </c>
+      <c r="G56">
+        <v>7567000185</v>
+      </c>
+      <c r="H56" t="s">
+        <v>256</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56" t="s">
+        <v>257</v>
+      </c>
+      <c r="L56" t="s">
+        <v>258</v>
+      </c>
+      <c r="M56">
+        <v>363030</v>
+      </c>
+      <c r="N56">
+        <v>7567000185</v>
+      </c>
+      <c r="O56" s="2">
+        <v>44334.38888888889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57">
+        <v>8141089151</v>
+      </c>
+      <c r="H57" t="s">
+        <v>260</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" t="s">
+        <v>218</v>
+      </c>
+      <c r="L57" t="s">
+        <v>261</v>
+      </c>
+      <c r="N57">
+        <v>8141089151</v>
+      </c>
+      <c r="O57" s="2">
+        <v>44334.23122685185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58">
+        <v>9879654499</v>
+      </c>
+      <c r="H58" t="s">
+        <v>264</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" t="s">
+        <v>191</v>
+      </c>
+      <c r="L58" t="s">
+        <v>265</v>
+      </c>
+      <c r="M58">
+        <v>384315</v>
+      </c>
+      <c r="N58">
+        <v>9879654499</v>
+      </c>
+      <c r="O58" s="2">
+        <v>44335.103379629625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G59">
+        <v>9638444417</v>
+      </c>
+      <c r="H59" t="s">
+        <v>268</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59" t="s">
+        <v>269</v>
+      </c>
+      <c r="L59" t="s">
+        <v>270</v>
+      </c>
+      <c r="M59">
+        <v>362150</v>
+      </c>
+      <c r="N59">
+        <v>9638444417</v>
+      </c>
+      <c r="O59" s="2">
+        <v>44335.16857638889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>271</v>
+      </c>
+      <c r="F60" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60">
+        <v>9725330985</v>
+      </c>
+      <c r="H60" t="s">
+        <v>273</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" t="s">
+        <v>239</v>
+      </c>
+      <c r="L60" t="s">
+        <v>274</v>
+      </c>
+      <c r="M60">
+        <v>360410</v>
+      </c>
+      <c r="N60">
+        <v>9408899379</v>
+      </c>
+      <c r="O60" s="2">
+        <v>44334.41475694445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>275</v>
+      </c>
+      <c r="F61" t="s">
+        <v>276</v>
+      </c>
+      <c r="G61">
+        <v>9825752531</v>
+      </c>
+      <c r="H61" t="s">
+        <v>277</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>278</v>
+      </c>
+      <c r="L61" t="s">
+        <v>279</v>
+      </c>
+      <c r="M61">
+        <v>388350</v>
+      </c>
+      <c r="N61">
+        <v>9825752531</v>
+      </c>
+      <c r="O61" s="2">
+        <v>44336.32392361111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>280</v>
+      </c>
+      <c r="F62" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62">
+        <v>7405527982</v>
+      </c>
+      <c r="H62" t="s">
+        <v>282</v>
+      </c>
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>283</v>
+      </c>
+      <c r="M62">
+        <v>388345</v>
+      </c>
+      <c r="N62">
+        <v>7405527982</v>
+      </c>
+      <c r="O62" s="2">
+        <v>44334.258784722224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>284</v>
+      </c>
+      <c r="F63" t="s">
+        <v>285</v>
+      </c>
+      <c r="G63">
+        <v>9427677331</v>
+      </c>
+      <c r="H63" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63" t="s">
+        <v>191</v>
+      </c>
+      <c r="L63" t="s">
+        <v>287</v>
+      </c>
+      <c r="M63">
+        <v>384315</v>
+      </c>
+      <c r="N63">
+        <v>9427677331</v>
+      </c>
+      <c r="O63" s="2">
+        <v>44336.372187500005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>288</v>
+      </c>
+      <c r="F64" t="s">
+        <v>289</v>
+      </c>
+      <c r="G64">
+        <v>9825112701</v>
+      </c>
+      <c r="H64" t="s">
+        <v>290</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>291</v>
+      </c>
+      <c r="K64" t="s">
+        <v>292</v>
+      </c>
+      <c r="L64" t="s">
+        <v>293</v>
+      </c>
+      <c r="N64">
+        <v>9825112701</v>
+      </c>
+      <c r="O64" s="2">
+        <v>44334.23112268519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" t="s">
+        <v>295</v>
+      </c>
+      <c r="G65">
+        <v>9909591579</v>
+      </c>
+      <c r="H65" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>297</v>
+      </c>
+      <c r="K65" t="s">
+        <v>298</v>
+      </c>
+      <c r="L65" t="s">
+        <v>299</v>
+      </c>
+      <c r="M65">
+        <v>385535</v>
+      </c>
+      <c r="N65">
+        <v>9909591579</v>
+      </c>
+      <c r="O65" s="2">
+        <v>44334.177824074075</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66">
+        <v>9825359912</v>
+      </c>
+      <c r="H66" t="s">
+        <v>301</v>
+      </c>
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66">
+        <v>9825359912</v>
+      </c>
+      <c r="O66" s="2">
+        <v>44333.41636574074</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>302</v>
+      </c>
+      <c r="F67" t="s">
+        <v>303</v>
+      </c>
+      <c r="G67">
+        <v>9825608141</v>
+      </c>
+      <c r="H67" t="s">
+        <v>304</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>291</v>
+      </c>
+      <c r="K67" t="s">
+        <v>305</v>
+      </c>
+      <c r="L67" t="s">
+        <v>306</v>
+      </c>
+      <c r="M67">
+        <v>395010</v>
+      </c>
+      <c r="O67" s="2">
+        <v>44334.25042824074</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>307</v>
+      </c>
+      <c r="G68">
+        <v>9428316765</v>
+      </c>
+      <c r="H68" t="s">
+        <v>308</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K68" t="s">
+        <v>309</v>
+      </c>
+      <c r="L68" t="s">
+        <v>310</v>
+      </c>
+      <c r="M68">
+        <v>360530</v>
+      </c>
+      <c r="N68">
+        <v>9428316765</v>
+      </c>
+      <c r="O68" s="2">
+        <v>44334.432696759264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>311</v>
+      </c>
+      <c r="F69" t="s">
+        <v>312</v>
+      </c>
+      <c r="G69">
+        <v>9723545580</v>
+      </c>
+      <c r="H69" t="s">
+        <v>313</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>297</v>
+      </c>
+      <c r="K69" t="s">
+        <v>314</v>
+      </c>
+      <c r="L69" t="s">
+        <v>315</v>
+      </c>
+      <c r="M69">
+        <v>385320</v>
+      </c>
+      <c r="N69">
+        <v>9723545580</v>
+      </c>
+      <c r="O69" s="2">
+        <v>44334.57708333334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70">
+        <v>9724016073</v>
+      </c>
+      <c r="O70" s="2">
+        <v>44333.419756944444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>316</v>
+      </c>
+      <c r="F71" t="s">
+        <v>317</v>
+      </c>
+      <c r="G71">
+        <v>9624081368</v>
+      </c>
+      <c r="H71" t="s">
+        <v>318</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" t="s">
+        <v>89</v>
+      </c>
+      <c r="L71" t="s">
+        <v>319</v>
+      </c>
+      <c r="M71">
+        <v>360050</v>
+      </c>
+      <c r="N71">
+        <v>9624081368</v>
+      </c>
+      <c r="O71" s="2">
+        <v>44334.1697337963</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>320</v>
+      </c>
+      <c r="F72" t="s">
+        <v>321</v>
+      </c>
+      <c r="G72">
+        <v>8870683043</v>
+      </c>
+      <c r="H72" t="s">
+        <v>322</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>323</v>
+      </c>
+      <c r="K72" t="s">
+        <v>324</v>
+      </c>
+      <c r="L72" t="s">
+        <v>325</v>
+      </c>
+      <c r="N72">
+        <v>8870683041</v>
+      </c>
+      <c r="O72" s="2">
+        <v>44332.29545138888</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>326</v>
+      </c>
+      <c r="F73" t="s">
+        <v>327</v>
+      </c>
+      <c r="G73">
+        <v>9978115968</v>
+      </c>
+      <c r="H73" t="s">
+        <v>328</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>64</v>
+      </c>
+      <c r="K73" t="s">
+        <v>329</v>
+      </c>
+      <c r="L73" t="s">
+        <v>330</v>
+      </c>
+      <c r="M73">
+        <v>388001</v>
+      </c>
+      <c r="N73">
+        <v>9427382368</v>
+      </c>
+      <c r="O73" s="2">
+        <v>44335.05892361111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>331</v>
+      </c>
+      <c r="F74" t="s">
+        <v>332</v>
+      </c>
+      <c r="G74">
+        <v>9426233097</v>
+      </c>
+      <c r="H74" t="s">
+        <v>333</v>
+      </c>
+      <c r="I74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74" t="s">
+        <v>145</v>
+      </c>
+      <c r="L74" t="s">
+        <v>334</v>
+      </c>
+      <c r="M74">
+        <v>383001</v>
+      </c>
+      <c r="N74">
+        <v>9426233097</v>
+      </c>
+      <c r="O74" s="2">
+        <v>44334.45251157407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>335</v>
+      </c>
+      <c r="F75" t="s">
+        <v>336</v>
+      </c>
+      <c r="G75">
+        <v>9427664069</v>
+      </c>
+      <c r="H75" t="s">
+        <v>337</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75" t="s">
+        <v>257</v>
+      </c>
+      <c r="L75" t="s">
+        <v>258</v>
+      </c>
+      <c r="M75">
+        <v>363030</v>
+      </c>
+      <c r="N75">
+        <v>9510819196</v>
+      </c>
+      <c r="O75" s="2">
+        <v>44334.3903587963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>338</v>
+      </c>
+      <c r="F76" t="s">
+        <v>339</v>
+      </c>
+      <c r="G76">
+        <v>8780988709</v>
+      </c>
+      <c r="H76" t="s">
+        <v>340</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>204</v>
+      </c>
+      <c r="K76" t="s">
+        <v>205</v>
+      </c>
+      <c r="L76" t="s">
+        <v>340</v>
+      </c>
+      <c r="M76">
+        <v>384240</v>
+      </c>
+      <c r="N76">
+        <v>8780988709</v>
+      </c>
+      <c r="O76" s="2">
+        <v>44333.6592824074</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>341</v>
+      </c>
+      <c r="G77">
+        <v>9638527410</v>
+      </c>
+      <c r="H77" t="s">
+        <v>342</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>343</v>
+      </c>
+      <c r="K77" t="s">
+        <v>344</v>
+      </c>
+      <c r="L77" t="s">
+        <v>345</v>
+      </c>
+      <c r="M77">
+        <v>789456</v>
+      </c>
+      <c r="O77" s="2">
+        <v>44333.50361111111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>346</v>
+      </c>
+      <c r="F78" t="s">
+        <v>347</v>
+      </c>
+      <c r="G78">
+        <v>9898339982</v>
+      </c>
+      <c r="H78" t="s">
+        <v>348</v>
+      </c>
+      <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
+        <v>291</v>
+      </c>
+      <c r="K78" t="s">
+        <v>349</v>
+      </c>
+      <c r="L78" t="s">
+        <v>350</v>
+      </c>
+      <c r="M78">
+        <v>394310</v>
+      </c>
+      <c r="N78">
+        <v>9898339982</v>
+      </c>
+      <c r="O78" s="2">
+        <v>44335.573483796295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>351</v>
+      </c>
+      <c r="G79">
+        <v>8870683034</v>
+      </c>
+      <c r="H79" t="s">
+        <v>351</v>
+      </c>
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
+        <v>204</v>
+      </c>
+      <c r="K79" t="s">
+        <v>352</v>
+      </c>
+      <c r="L79" t="s">
+        <v>353</v>
+      </c>
+      <c r="O79" s="2">
+        <v>44333.43555555555</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80">
+        <v>9558419901</v>
+      </c>
+      <c r="H80" t="s">
+        <v>119</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K80" t="s">
+        <v>59</v>
+      </c>
+      <c r="L80" t="s">
+        <v>120</v>
+      </c>
+      <c r="M80">
+        <v>363310</v>
+      </c>
+      <c r="N80">
+        <v>9558419901</v>
+      </c>
+      <c r="O80" s="2">
+        <v>44334.12123842593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>354</v>
+      </c>
+      <c r="F81" t="s">
+        <v>355</v>
+      </c>
+      <c r="G81">
+        <v>7568233363</v>
+      </c>
+      <c r="H81" t="s">
+        <v>356</v>
+      </c>
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" t="s">
+        <v>75</v>
+      </c>
+      <c r="L81" t="s">
+        <v>357</v>
+      </c>
+      <c r="M81">
+        <v>363650</v>
+      </c>
+      <c r="N81">
+        <v>7568233363</v>
+      </c>
+      <c r="O81" s="2">
+        <v>44335.29523148148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>358</v>
+      </c>
+      <c r="F82" t="s">
+        <v>359</v>
+      </c>
+      <c r="G82">
+        <v>9377714296</v>
+      </c>
+      <c r="H82" t="s">
+        <v>360</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" t="s">
+        <v>361</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>9377714296</v>
+      </c>
+      <c r="O82" s="2">
+        <v>44335.29009259259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>362</v>
+      </c>
+      <c r="F83" t="s">
+        <v>363</v>
+      </c>
+      <c r="G83">
+        <v>8200873474</v>
+      </c>
+      <c r="H83" t="s">
+        <v>364</v>
+      </c>
+      <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" t="s">
+        <v>365</v>
+      </c>
+      <c r="L83" t="s">
+        <v>366</v>
+      </c>
+      <c r="M83">
+        <v>383110</v>
+      </c>
+      <c r="N83">
+        <v>8200873474</v>
+      </c>
+      <c r="O83" s="2">
+        <v>44335.709016203706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>367</v>
+      </c>
+      <c r="G84">
+        <v>1212121212</v>
+      </c>
+      <c r="N84">
+        <v>1212121211</v>
+      </c>
+      <c r="O84" s="2">
+        <v>44331.41310185185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85">
+        <v>9586624833</v>
+      </c>
+      <c r="H85" t="s">
+        <v>139</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" t="s">
+        <v>140</v>
+      </c>
+      <c r="L85" t="s">
+        <v>141</v>
+      </c>
+      <c r="M85">
+        <v>360370</v>
+      </c>
+      <c r="O85" s="2">
+        <v>44334.71420138889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>368</v>
+      </c>
+      <c r="F86" t="s">
+        <v>369</v>
+      </c>
+      <c r="G86">
+        <v>9016342972</v>
+      </c>
+      <c r="H86" t="s">
+        <v>370</v>
+      </c>
+      <c r="I86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" t="s">
+        <v>371</v>
+      </c>
+      <c r="L86" t="s">
+        <v>372</v>
+      </c>
+      <c r="M86">
+        <v>364210</v>
+      </c>
+      <c r="N86">
+        <v>9016342972</v>
+      </c>
+      <c r="O86" s="2">
+        <v>44336.40424768519</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>373</v>
+      </c>
+      <c r="F87" t="s">
+        <v>374</v>
+      </c>
+      <c r="G87">
+        <v>9825350418</v>
+      </c>
+      <c r="H87" t="s">
+        <v>375</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>113</v>
+      </c>
+      <c r="K87" t="s">
+        <v>114</v>
+      </c>
+      <c r="L87" t="s">
+        <v>376</v>
+      </c>
+      <c r="M87">
+        <v>362640</v>
+      </c>
+      <c r="N87">
+        <v>9825350418</v>
+      </c>
+      <c r="O87" s="2">
+        <v>44336.398194444446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>377</v>
+      </c>
+      <c r="F88" t="s">
+        <v>378</v>
+      </c>
+      <c r="G88">
+        <v>9724153440</v>
+      </c>
+      <c r="H88" t="s">
+        <v>379</v>
+      </c>
+      <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88" t="s">
+        <v>380</v>
+      </c>
+      <c r="L88" t="s">
+        <v>381</v>
+      </c>
+      <c r="M88">
+        <v>360110</v>
+      </c>
+      <c r="N88">
+        <v>9724153440</v>
+      </c>
+      <c r="O88" s="2">
+        <v>44334.424895833334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>382</v>
+      </c>
+      <c r="F89" t="s">
+        <v>383</v>
+      </c>
+      <c r="G89">
+        <v>9755038177</v>
+      </c>
+      <c r="H89" t="s">
+        <v>384</v>
+      </c>
+      <c r="I89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>32</v>
+      </c>
+      <c r="K89" t="s">
+        <v>385</v>
+      </c>
+      <c r="L89" t="s">
+        <v>386</v>
+      </c>
+      <c r="M89">
+        <v>360490</v>
+      </c>
+      <c r="N89">
+        <v>9755038177</v>
+      </c>
+      <c r="O89" s="2">
+        <v>44333.67307870371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>387</v>
+      </c>
+      <c r="F90" t="s">
+        <v>388</v>
+      </c>
+      <c r="G90">
+        <v>9316482619</v>
+      </c>
+      <c r="H90" t="s">
+        <v>389</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>185</v>
+      </c>
+      <c r="K90" t="s">
+        <v>244</v>
+      </c>
+      <c r="L90" t="s">
+        <v>245</v>
+      </c>
+      <c r="M90">
+        <v>387001</v>
+      </c>
+      <c r="N90">
+        <v>9316482619</v>
+      </c>
+      <c r="O90" s="2">
+        <v>44335.66810185185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>390</v>
+      </c>
+      <c r="F91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G91">
+        <v>9979853448</v>
+      </c>
+      <c r="H91" t="s">
+        <v>392</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s">
+        <v>37</v>
+      </c>
+      <c r="L91" t="s">
+        <v>393</v>
+      </c>
+      <c r="O91" s="2">
+        <v>44333.692523148144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>394</v>
+      </c>
+      <c r="F92" t="s">
+        <v>395</v>
+      </c>
+      <c r="G92">
+        <v>9408922722</v>
+      </c>
+      <c r="H92" t="s">
+        <v>396</v>
+      </c>
+      <c r="I92" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>204</v>
+      </c>
+      <c r="K92" t="s">
+        <v>204</v>
+      </c>
+      <c r="L92" t="s">
+        <v>397</v>
+      </c>
+      <c r="M92">
+        <v>384260</v>
+      </c>
+      <c r="N92">
+        <v>9408922722</v>
+      </c>
+      <c r="O92" s="2">
+        <v>44335.59685185185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>398</v>
+      </c>
+      <c r="F93" t="s">
+        <v>399</v>
+      </c>
+      <c r="G93">
+        <v>9377601000</v>
+      </c>
+      <c r="H93" t="s">
+        <v>400</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
+        <v>175</v>
+      </c>
+      <c r="K93" t="s">
+        <v>175</v>
+      </c>
+      <c r="L93" t="s">
+        <v>401</v>
+      </c>
+      <c r="M93">
+        <v>396469</v>
+      </c>
+      <c r="N93">
+        <v>9377601000</v>
+      </c>
+      <c r="O93" s="2">
+        <v>44334.62667824074</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>402</v>
+      </c>
+      <c r="F94" t="s">
+        <v>403</v>
+      </c>
+      <c r="G94">
+        <v>9662662364</v>
+      </c>
+      <c r="H94" t="s">
+        <v>404</v>
+      </c>
+      <c r="I94" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" t="s">
+        <v>32</v>
+      </c>
+      <c r="L94" t="s">
+        <v>405</v>
+      </c>
+      <c r="M94">
+        <v>360005</v>
+      </c>
+      <c r="N94">
+        <v>9662662365</v>
+      </c>
+      <c r="O94" s="2">
+        <v>44334.42954861111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>406</v>
+      </c>
+      <c r="F95" t="s">
+        <v>407</v>
+      </c>
+      <c r="G95">
+        <v>9427673151</v>
+      </c>
+      <c r="H95" t="s">
+        <v>408</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
+        <v>323</v>
+      </c>
+      <c r="K95" t="s">
+        <v>323</v>
+      </c>
+      <c r="L95" t="s">
+        <v>409</v>
+      </c>
+      <c r="M95">
+        <v>389151</v>
+      </c>
+      <c r="N95">
+        <v>9427673151</v>
+      </c>
+      <c r="O95" s="2">
+        <v>44334.12329861111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>410</v>
+      </c>
+      <c r="F96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G96">
+        <v>7069477355</v>
+      </c>
+      <c r="H96" t="s">
+        <v>412</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>154</v>
+      </c>
+      <c r="K96" t="s">
+        <v>218</v>
+      </c>
+      <c r="L96" t="s">
+        <v>219</v>
+      </c>
+      <c r="M96">
+        <v>382845</v>
+      </c>
+      <c r="N96">
+        <v>7069477355</v>
+      </c>
+      <c r="O96" s="2">
+        <v>44336.28895833333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>413</v>
+      </c>
+      <c r="F97" t="s">
+        <v>414</v>
+      </c>
+      <c r="G97">
+        <v>9820268526</v>
+      </c>
+      <c r="H97" t="s">
+        <v>415</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" t="s">
+        <v>32</v>
+      </c>
+      <c r="L97" t="s">
+        <v>416</v>
+      </c>
+      <c r="M97">
+        <v>360001</v>
+      </c>
+      <c r="N97">
+        <v>9820268526</v>
+      </c>
+      <c r="O97" s="2">
+        <v>44333.70017361111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" t="s">
+        <v>351</v>
+      </c>
+      <c r="G98">
+        <v>6754657985</v>
+      </c>
+      <c r="H98" t="s">
+        <v>351</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>185</v>
+      </c>
+      <c r="K98" t="s">
+        <v>244</v>
+      </c>
+      <c r="L98" t="s">
+        <v>417</v>
+      </c>
+      <c r="O98" s="2">
+        <v>44333.592210648145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" t="s">
+        <v>419</v>
+      </c>
+      <c r="G99">
+        <v>9820710709</v>
+      </c>
+      <c r="H99" t="s">
+        <v>420</v>
+      </c>
+      <c r="I99" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s">
+        <v>421</v>
+      </c>
+      <c r="K99" t="s">
+        <v>422</v>
+      </c>
+      <c r="L99" t="s">
+        <v>423</v>
+      </c>
+      <c r="N99">
+        <v>9820710709</v>
+      </c>
+      <c r="O99" s="2">
+        <v>44334.12296296297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" t="s">
+        <v>424</v>
+      </c>
+      <c r="G100">
+        <v>9898735433</v>
+      </c>
+      <c r="H100" t="s">
+        <v>425</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s">
+        <v>154</v>
+      </c>
+      <c r="K100" t="s">
+        <v>426</v>
+      </c>
+      <c r="L100" t="s">
+        <v>427</v>
+      </c>
+      <c r="N100">
+        <v>9898735433</v>
+      </c>
+      <c r="O100" s="2">
+        <v>44336.30425925926</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>428</v>
+      </c>
+      <c r="G101">
+        <v>9909458911</v>
+      </c>
+      <c r="H101" t="s">
+        <v>429</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101" t="s">
+        <v>59</v>
+      </c>
+      <c r="L101" t="s">
+        <v>120</v>
+      </c>
+      <c r="M101">
+        <v>363310</v>
+      </c>
+      <c r="N101">
+        <v>9909458911</v>
+      </c>
+      <c r="O101" s="2">
+        <v>44334.210439814815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" t="s">
+        <v>430</v>
+      </c>
+      <c r="G102">
+        <v>9825208551</v>
+      </c>
+      <c r="H102" t="s">
+        <v>431</v>
+      </c>
+      <c r="I102" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s">
+        <v>70</v>
+      </c>
+      <c r="K102" t="s">
+        <v>432</v>
+      </c>
+      <c r="L102" t="s">
+        <v>433</v>
+      </c>
+      <c r="M102">
+        <v>360510</v>
+      </c>
+      <c r="N102">
+        <v>9825208551</v>
+      </c>
+      <c r="O102" s="2">
+        <v>44334.59505787037</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>434</v>
+      </c>
+      <c r="F103" t="s">
+        <v>435</v>
+      </c>
+      <c r="G103">
+        <v>7990349993</v>
+      </c>
+      <c r="H103" t="s">
+        <v>436</v>
+      </c>
+      <c r="I103" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s">
+        <v>99</v>
+      </c>
+      <c r="K103" t="s">
+        <v>437</v>
+      </c>
+      <c r="L103" t="s">
+        <v>438</v>
+      </c>
+      <c r="M103">
+        <v>370001</v>
+      </c>
+      <c r="N103">
+        <v>7990349993</v>
+      </c>
+      <c r="O103" s="2">
+        <v>44336.39232638889</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>439</v>
+      </c>
+      <c r="F104" t="s">
+        <v>440</v>
+      </c>
+      <c r="G104">
+        <v>9601970117</v>
+      </c>
+      <c r="H104" t="s">
+        <v>441</v>
+      </c>
+      <c r="I104" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" t="s">
+        <v>442</v>
+      </c>
+      <c r="L104" t="s">
+        <v>442</v>
+      </c>
+      <c r="M104">
+        <v>360030</v>
+      </c>
+      <c r="N104">
+        <v>9601970117</v>
+      </c>
+      <c r="O104" s="2">
+        <v>44334.572488425925</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>443</v>
+      </c>
+      <c r="F105" t="s">
+        <v>444</v>
+      </c>
+      <c r="G105">
+        <v>7434994418</v>
+      </c>
+      <c r="H105" t="s">
+        <v>445</v>
+      </c>
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s">
+        <v>154</v>
+      </c>
+      <c r="K105" t="s">
+        <v>155</v>
+      </c>
+      <c r="L105" t="s">
+        <v>446</v>
+      </c>
+      <c r="M105">
+        <v>382308</v>
+      </c>
+      <c r="N105">
+        <v>7434994418</v>
+      </c>
+      <c r="O105" s="2">
+        <v>44336.3528125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>447</v>
+      </c>
+      <c r="G106">
+        <v>7226072363</v>
+      </c>
+      <c r="H106" t="s">
+        <v>448</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106" t="s">
+        <v>145</v>
+      </c>
+      <c r="L106" t="s">
+        <v>448</v>
+      </c>
+      <c r="M106">
+        <v>383220</v>
+      </c>
+      <c r="N106">
+        <v>9998969110</v>
+      </c>
+      <c r="O106" s="2">
+        <v>44336.372835648144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>449</v>
+      </c>
+      <c r="F107" t="s">
+        <v>450</v>
+      </c>
+      <c r="G107">
+        <v>9428623566</v>
+      </c>
+      <c r="H107" t="s">
+        <v>451</v>
+      </c>
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s">
+        <v>113</v>
+      </c>
+      <c r="K107" t="s">
+        <v>452</v>
+      </c>
+      <c r="L107" t="s">
+        <v>453</v>
+      </c>
+      <c r="M107">
+        <v>362245</v>
+      </c>
+      <c r="N107">
+        <v>9428623566</v>
+      </c>
+      <c r="O107" s="2">
+        <v>44336.36042824074</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>454</v>
+      </c>
+      <c r="F108" t="s">
+        <v>455</v>
+      </c>
+      <c r="G108">
+        <v>9904370859</v>
+      </c>
+      <c r="H108" t="s">
+        <v>456</v>
+      </c>
+      <c r="I108" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" t="s">
+        <v>124</v>
+      </c>
+      <c r="K108" t="s">
+        <v>124</v>
+      </c>
+      <c r="L108" t="s">
+        <v>457</v>
+      </c>
+      <c r="M108">
+        <v>384435</v>
+      </c>
+      <c r="N108">
+        <v>9904370859</v>
+      </c>
+      <c r="O108" s="2">
+        <v>44334.47840277778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>458</v>
+      </c>
+      <c r="F109" t="s">
+        <v>459</v>
+      </c>
+      <c r="G109">
+        <v>9426320018</v>
+      </c>
+      <c r="H109" t="s">
+        <v>460</v>
+      </c>
+      <c r="I109" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" t="s">
+        <v>297</v>
+      </c>
+      <c r="K109" t="s">
+        <v>461</v>
+      </c>
+      <c r="L109" t="s">
+        <v>462</v>
+      </c>
+      <c r="M109">
+        <v>385535</v>
+      </c>
+      <c r="N109">
+        <v>9426320018</v>
+      </c>
+      <c r="O109" s="2">
+        <v>44334.135243055556</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>382</v>
+      </c>
+      <c r="F110" t="s">
+        <v>383</v>
+      </c>
+      <c r="G110">
+        <v>9755038177</v>
+      </c>
+      <c r="H110" t="s">
+        <v>384</v>
+      </c>
+      <c r="I110" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" t="s">
+        <v>385</v>
+      </c>
+      <c r="L110" t="s">
+        <v>386</v>
+      </c>
+      <c r="M110">
+        <v>360490</v>
+      </c>
+      <c r="N110">
+        <v>9755038177</v>
+      </c>
+      <c r="O110" s="2">
+        <v>44333.67307870371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>463</v>
+      </c>
+      <c r="F111" t="s">
+        <v>464</v>
+      </c>
+      <c r="G111">
+        <v>9833385943</v>
+      </c>
+      <c r="H111" t="s">
+        <v>465</v>
+      </c>
+      <c r="I111" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" t="s">
+        <v>48</v>
+      </c>
+      <c r="K111" t="s">
+        <v>466</v>
+      </c>
+      <c r="L111" t="s">
+        <v>467</v>
+      </c>
+      <c r="M111">
+        <v>383250</v>
+      </c>
+      <c r="N111">
+        <v>9833385943</v>
+      </c>
+      <c r="O111" s="2">
+        <v>44333.614537037036</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" t="s">
+        <v>215</v>
+      </c>
+      <c r="F112" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112">
+        <v>6353861518</v>
+      </c>
+      <c r="H112" t="s">
+        <v>217</v>
+      </c>
+      <c r="I112" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+      <c r="K112" t="s">
+        <v>218</v>
+      </c>
+      <c r="L112" t="s">
+        <v>219</v>
+      </c>
+      <c r="M112">
+        <v>382845</v>
+      </c>
+      <c r="N112">
+        <v>8238049333</v>
+      </c>
+      <c r="O112" s="2">
+        <v>44336.30641203704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>468</v>
+      </c>
+      <c r="F113" t="s">
+        <v>435</v>
+      </c>
+      <c r="G113">
+        <v>9913841532</v>
+      </c>
+      <c r="H113" t="s">
+        <v>469</v>
+      </c>
+      <c r="I113" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" t="s">
+        <v>99</v>
+      </c>
+      <c r="K113" t="s">
+        <v>437</v>
+      </c>
+      <c r="L113" t="s">
+        <v>438</v>
+      </c>
+      <c r="M113">
+        <v>370001</v>
+      </c>
+      <c r="N113">
+        <v>9913841532</v>
+      </c>
+      <c r="O113" s="2">
+        <v>44336.289375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" t="s">
+        <v>72</v>
+      </c>
+      <c r="F114" t="s">
+        <v>73</v>
+      </c>
+      <c r="G114">
+        <v>9978973991</v>
+      </c>
+      <c r="H114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" t="s">
+        <v>75</v>
+      </c>
+      <c r="L114" t="s">
+        <v>76</v>
+      </c>
+      <c r="M114">
+        <v>363650</v>
+      </c>
+      <c r="N114">
+        <v>9979873991</v>
+      </c>
+      <c r="O114" s="2">
+        <v>44334.142592592594</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" t="s">
+        <v>470</v>
+      </c>
+      <c r="G115">
+        <v>6354443144</v>
+      </c>
+      <c r="H115" t="s">
+        <v>471</v>
+      </c>
+      <c r="I115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" t="s">
+        <v>124</v>
+      </c>
+      <c r="K115" t="s">
+        <v>472</v>
+      </c>
+      <c r="L115" t="s">
+        <v>473</v>
+      </c>
+      <c r="M115">
+        <v>382140</v>
+      </c>
+      <c r="N115">
+        <v>9601443987</v>
+      </c>
+      <c r="O115" s="2">
+        <v>44334.30425925926</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C116" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s">
+        <v>474</v>
+      </c>
+      <c r="F116" t="s">
+        <v>475</v>
+      </c>
+      <c r="G116">
+        <v>9725334190</v>
+      </c>
+      <c r="H116" t="s">
+        <v>476</v>
+      </c>
+      <c r="I116" t="s">
+        <v>20</v>
+      </c>
+      <c r="J116" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" t="s">
+        <v>442</v>
+      </c>
+      <c r="L116" t="s">
+        <v>476</v>
+      </c>
+      <c r="M116">
+        <v>360030</v>
+      </c>
+      <c r="N116">
+        <v>9725334190</v>
+      </c>
+      <c r="O116" s="2">
+        <v>44334.17178240741</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>477</v>
+      </c>
+      <c r="F117" t="s">
+        <v>478</v>
+      </c>
+      <c r="G117">
+        <v>7572890075</v>
+      </c>
+      <c r="H117" t="s">
+        <v>479</v>
+      </c>
+      <c r="I117" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
+        <v>99</v>
+      </c>
+      <c r="K117" t="s">
+        <v>480</v>
+      </c>
+      <c r="L117" t="s">
+        <v>481</v>
+      </c>
+      <c r="M117">
+        <v>370140</v>
+      </c>
+      <c r="N117">
+        <v>7572890075</v>
+      </c>
+      <c r="O117" s="2">
+        <v>44336.30394675926</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
+        <v>482</v>
+      </c>
+      <c r="F118" t="s">
+        <v>483</v>
+      </c>
+      <c r="G118">
+        <v>9998964172</v>
+      </c>
+      <c r="H118" t="s">
+        <v>484</v>
+      </c>
+      <c r="I118" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" t="s">
+        <v>291</v>
+      </c>
+      <c r="K118" t="s">
+        <v>485</v>
+      </c>
+      <c r="L118" t="s">
+        <v>486</v>
+      </c>
+      <c r="M118">
+        <v>395009</v>
+      </c>
+      <c r="N118">
+        <v>9998965172</v>
+      </c>
+      <c r="O118" s="2">
+        <v>44334.54619212963</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>487</v>
+      </c>
+      <c r="F119" t="s">
+        <v>488</v>
+      </c>
+      <c r="G119">
+        <v>9924471442</v>
+      </c>
+      <c r="H119" t="s">
+        <v>489</v>
+      </c>
+      <c r="I119" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" t="s">
+        <v>343</v>
+      </c>
+      <c r="K119" t="s">
+        <v>343</v>
+      </c>
+      <c r="L119" t="s">
+        <v>490</v>
+      </c>
+      <c r="M119">
+        <v>392210</v>
+      </c>
+      <c r="N119">
+        <v>9924471442</v>
+      </c>
+      <c r="O119" s="2">
+        <v>44335.39068287037</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>491</v>
+      </c>
+      <c r="F120" t="s">
+        <v>492</v>
+      </c>
+      <c r="G120">
+        <v>9825044991</v>
+      </c>
+      <c r="H120" t="s">
+        <v>493</v>
+      </c>
+      <c r="I120" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" t="s">
+        <v>185</v>
+      </c>
+      <c r="K120" t="s">
+        <v>186</v>
+      </c>
+      <c r="L120" t="s">
+        <v>494</v>
+      </c>
+      <c r="M120">
+        <v>387520</v>
+      </c>
+      <c r="N120">
+        <v>9825044991</v>
+      </c>
+      <c r="O120" s="2">
+        <v>44336.293587962966</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>495</v>
+      </c>
+      <c r="F121" t="s">
+        <v>235</v>
+      </c>
+      <c r="G121">
+        <v>3533334343</v>
+      </c>
+      <c r="H121" t="s">
+        <v>496</v>
+      </c>
+      <c r="I121" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121" t="s">
+        <v>497</v>
+      </c>
+      <c r="K121" t="s">
+        <v>498</v>
+      </c>
+      <c r="L121" t="s">
+        <v>499</v>
+      </c>
+      <c r="O121" s="2">
+        <v>44333.434687500005</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +7690,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="15" width="30" customWidth="1"/>
@@ -631,19 +7757,1397 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>501</v>
       </c>
       <c r="G2">
-        <v>8448208953</v>
+        <v>9913357889</v>
+      </c>
+      <c r="H2" t="s">
+        <v>502</v>
+      </c>
+      <c r="L2" t="s">
+        <v>503</v>
+      </c>
+      <c r="M2">
+        <v>382210</v>
       </c>
       <c r="N2">
+        <v>9913357889</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44336.345289351855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G3">
+        <v>9427454535</v>
+      </c>
+      <c r="H3" t="s">
+        <v>505</v>
+      </c>
+      <c r="L3" t="s">
+        <v>506</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>9427454535</v>
+      </c>
+      <c r="O3" s="2">
+        <v>44333.61111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G4">
+        <v>8733033222</v>
+      </c>
+      <c r="H4" t="s">
+        <v>509</v>
+      </c>
+      <c r="L4" t="s">
+        <v>510</v>
+      </c>
+      <c r="M4">
+        <v>382330</v>
+      </c>
+      <c r="N4">
+        <v>8733033222</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44334.18486111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G5">
+        <v>9426922999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>513</v>
+      </c>
+      <c r="L5" t="s">
+        <v>514</v>
+      </c>
+      <c r="M5">
+        <v>364001</v>
+      </c>
+      <c r="N5">
+        <v>9426922999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>44336.087118055555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G6">
+        <v>9974061067</v>
+      </c>
+      <c r="H6" t="s">
+        <v>517</v>
+      </c>
+      <c r="L6" t="s">
+        <v>518</v>
+      </c>
+      <c r="M6">
+        <v>364210</v>
+      </c>
+      <c r="N6">
+        <v>9974061067</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44334.23768518519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7">
+        <v>7894568520</v>
+      </c>
+      <c r="H7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L7" t="s">
+        <v>519</v>
+      </c>
+      <c r="M7">
+        <v>741852</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44333.5640162037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>520</v>
+      </c>
+      <c r="F8" t="s">
+        <v>521</v>
+      </c>
+      <c r="G8">
+        <v>9925600189</v>
+      </c>
+      <c r="H8" t="s">
+        <v>522</v>
+      </c>
+      <c r="L8" t="s">
+        <v>523</v>
+      </c>
+      <c r="M8">
+        <v>361160</v>
+      </c>
+      <c r="N8">
+        <v>9925600189</v>
+      </c>
+      <c r="O8" s="2">
+        <v>44334.45222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>511</v>
+      </c>
+      <c r="F9" t="s">
+        <v>512</v>
+      </c>
+      <c r="G9">
+        <v>9426922999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>513</v>
+      </c>
+      <c r="L9" t="s">
+        <v>514</v>
+      </c>
+      <c r="M9">
+        <v>364001</v>
+      </c>
+      <c r="N9">
+        <v>9426922999</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44336.087118055555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>524</v>
+      </c>
+      <c r="G10">
+        <v>9825735961</v>
+      </c>
+      <c r="H10" t="s">
+        <v>525</v>
+      </c>
+      <c r="L10" t="s">
+        <v>526</v>
+      </c>
+      <c r="M10">
+        <v>370465</v>
+      </c>
+      <c r="N10">
+        <v>9825735961</v>
+      </c>
+      <c r="O10" s="2">
+        <v>44335.59909722222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>527</v>
+      </c>
+      <c r="F11" t="s">
+        <v>528</v>
+      </c>
+      <c r="G11">
+        <v>9227441100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>529</v>
+      </c>
+      <c r="L11" t="s">
+        <v>393</v>
+      </c>
+      <c r="M11">
+        <v>390024</v>
+      </c>
+      <c r="N11">
+        <v>9898564449</v>
+      </c>
+      <c r="O11" s="2">
+        <v>44333.988171296296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>530</v>
+      </c>
+      <c r="F12" t="s">
+        <v>531</v>
+      </c>
+      <c r="G12">
+        <v>7069039041</v>
+      </c>
+      <c r="H12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L12" t="s">
+        <v>532</v>
+      </c>
+      <c r="M12">
+        <v>380015</v>
+      </c>
+      <c r="N12">
+        <v>7069039041</v>
+      </c>
+      <c r="O12" s="2">
+        <v>44334.12385416667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>533</v>
+      </c>
+      <c r="F13" t="s">
+        <v>534</v>
+      </c>
+      <c r="G13">
+        <v>9978982635</v>
+      </c>
+      <c r="H13" t="s">
+        <v>535</v>
+      </c>
+      <c r="L13" t="s">
+        <v>536</v>
+      </c>
+      <c r="M13">
+        <v>380063</v>
+      </c>
+      <c r="N13">
+        <v>9978982635</v>
+      </c>
+      <c r="O13" s="2">
+        <v>44334.142962962964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>537</v>
+      </c>
+      <c r="F14" t="s">
+        <v>538</v>
+      </c>
+      <c r="G14">
+        <v>8347020036</v>
+      </c>
+      <c r="H14" t="s">
+        <v>539</v>
+      </c>
+      <c r="L14" t="s">
+        <v>540</v>
+      </c>
+      <c r="M14">
+        <v>390024</v>
+      </c>
+      <c r="N14">
+        <v>8347020036</v>
+      </c>
+      <c r="O14" s="2">
+        <v>44334.18508101851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F15" t="s">
+        <v>542</v>
+      </c>
+      <c r="G15">
+        <v>9373360006</v>
+      </c>
+      <c r="H15" t="s">
+        <v>543</v>
+      </c>
+      <c r="L15" t="s">
+        <v>544</v>
+      </c>
+      <c r="N15">
+        <v>9373360006</v>
+      </c>
+      <c r="O15" s="2">
+        <v>44335.27190972222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>545</v>
+      </c>
+      <c r="F16" t="s">
+        <v>546</v>
+      </c>
+      <c r="G16">
+        <v>7567924501</v>
+      </c>
+      <c r="H16" t="s">
+        <v>547</v>
+      </c>
+      <c r="L16" t="s">
+        <v>548</v>
+      </c>
+      <c r="M16">
+        <v>395007</v>
+      </c>
+      <c r="N16">
+        <v>7567924501</v>
+      </c>
+      <c r="O16" s="2">
+        <v>44335.6578125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>549</v>
+      </c>
+      <c r="F17" t="s">
+        <v>550</v>
+      </c>
+      <c r="G17">
+        <v>9099013885</v>
+      </c>
+      <c r="H17" t="s">
+        <v>551</v>
+      </c>
+      <c r="L17" t="s">
+        <v>552</v>
+      </c>
+      <c r="M17">
+        <v>380015</v>
+      </c>
+      <c r="N17">
+        <v>9099013885</v>
+      </c>
+      <c r="O17" s="2">
+        <v>44334.09778935185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18">
+        <v>8870632323</v>
+      </c>
+      <c r="H18" t="s">
+        <v>553</v>
+      </c>
+      <c r="L18" t="s">
+        <v>554</v>
+      </c>
+      <c r="O18" s="2">
+        <v>44333.59275462963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>555</v>
+      </c>
+      <c r="F19" t="s">
+        <v>556</v>
+      </c>
+      <c r="G19">
+        <v>9974411115</v>
+      </c>
+      <c r="H19" t="s">
+        <v>557</v>
+      </c>
+      <c r="L19" t="s">
+        <v>558</v>
+      </c>
+      <c r="M19">
+        <v>394540</v>
+      </c>
+      <c r="N19">
+        <v>9974411115</v>
+      </c>
+      <c r="O19" s="2">
+        <v>44335.15019675926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>559</v>
+      </c>
+      <c r="G20">
+        <v>1234567890</v>
+      </c>
+      <c r="H20" t="s">
+        <v>560</v>
+      </c>
+      <c r="L20" t="s">
+        <v>561</v>
+      </c>
+      <c r="N20">
+        <v>1234567890</v>
+      </c>
+      <c r="O20" s="2">
+        <v>44331.365902777776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>562</v>
+      </c>
+      <c r="F21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G21">
+        <v>9420907098</v>
+      </c>
+      <c r="H21" t="s">
+        <v>564</v>
+      </c>
+      <c r="L21" t="s">
+        <v>565</v>
+      </c>
+      <c r="M21">
+        <v>411007</v>
+      </c>
+      <c r="N21">
+        <v>9420907098</v>
+      </c>
+      <c r="O21" s="2">
+        <v>44335.61435185185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>566</v>
+      </c>
+      <c r="F22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22">
+        <v>8980019898</v>
+      </c>
+      <c r="H22" t="s">
+        <v>567</v>
+      </c>
+      <c r="L22" t="s">
+        <v>568</v>
+      </c>
+      <c r="M22">
+        <v>385535</v>
+      </c>
+      <c r="N22">
+        <v>8980019898</v>
+      </c>
+      <c r="O22" s="2">
+        <v>44335.128541666665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>569</v>
+      </c>
+      <c r="F23" t="s">
+        <v>570</v>
+      </c>
+      <c r="G23">
+        <v>9099006538</v>
+      </c>
+      <c r="H23" t="s">
+        <v>571</v>
+      </c>
+      <c r="L23" t="s">
+        <v>571</v>
+      </c>
+      <c r="M23">
+        <v>360590</v>
+      </c>
+      <c r="N23">
+        <v>9099006538</v>
+      </c>
+      <c r="O23" s="2">
+        <v>44334.27835648148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>572</v>
+      </c>
+      <c r="F24" t="s">
+        <v>573</v>
+      </c>
+      <c r="G24">
+        <v>9924289598</v>
+      </c>
+      <c r="H24" t="s">
+        <v>574</v>
+      </c>
+      <c r="L24" t="s">
+        <v>575</v>
+      </c>
+      <c r="N24">
+        <v>9924289598</v>
+      </c>
+      <c r="O24" s="2">
+        <v>44331.419537037036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F25" t="s">
+        <v>577</v>
+      </c>
+      <c r="G25">
+        <v>9327117171</v>
+      </c>
+      <c r="H25" t="s">
+        <v>578</v>
+      </c>
+      <c r="L25" t="s">
+        <v>579</v>
+      </c>
+      <c r="N25">
+        <v>9327117171</v>
+      </c>
+      <c r="O25" s="2">
+        <v>44333.57553240741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>580</v>
+      </c>
+      <c r="F26" t="s">
+        <v>581</v>
+      </c>
+      <c r="G26">
+        <v>7021107403</v>
+      </c>
+      <c r="H26" t="s">
+        <v>582</v>
+      </c>
+      <c r="L26" t="s">
+        <v>583</v>
+      </c>
+      <c r="M26">
+        <v>370140</v>
+      </c>
+      <c r="N26">
+        <v>7021107403</v>
+      </c>
+      <c r="O26" s="2">
+        <v>44334.702465277776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>584</v>
+      </c>
+      <c r="F27" t="s">
+        <v>585</v>
+      </c>
+      <c r="G27">
+        <v>9426269100</v>
+      </c>
+      <c r="L27" t="s">
+        <v>586</v>
+      </c>
+      <c r="O27" s="2">
+        <v>44334.278807870374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>587</v>
+      </c>
+      <c r="F28" t="s">
+        <v>588</v>
+      </c>
+      <c r="G28">
+        <v>9696541806</v>
+      </c>
+      <c r="H28" t="s">
+        <v>589</v>
+      </c>
+      <c r="L28" t="s">
+        <v>590</v>
+      </c>
+      <c r="N28">
+        <v>9453059066</v>
+      </c>
+      <c r="O28" s="2">
+        <v>44335.6884375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>591</v>
+      </c>
+      <c r="F29" t="s">
+        <v>592</v>
+      </c>
+      <c r="G29">
+        <v>9501822210</v>
+      </c>
+      <c r="H29" t="s">
+        <v>593</v>
+      </c>
+      <c r="L29" t="s">
+        <v>594</v>
+      </c>
+      <c r="M29">
+        <v>444444</v>
+      </c>
+      <c r="N29">
+        <v>9501822210</v>
+      </c>
+      <c r="O29" s="2">
+        <v>44336.3121875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>595</v>
+      </c>
+      <c r="F30" t="s">
+        <v>596</v>
+      </c>
+      <c r="G30">
+        <v>9909774556</v>
+      </c>
+      <c r="H30" t="s">
+        <v>597</v>
+      </c>
+      <c r="L30" t="s">
+        <v>598</v>
+      </c>
+      <c r="M30">
+        <v>380015</v>
+      </c>
+      <c r="N30">
+        <v>9909774556</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44336.197650462964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31">
+        <v>7894561230</v>
+      </c>
+      <c r="H31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" t="s">
+        <v>599</v>
+      </c>
+      <c r="O31" s="2">
+        <v>44334.28883101852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>600</v>
+      </c>
+      <c r="F32" t="s">
+        <v>601</v>
+      </c>
+      <c r="G32">
+        <v>9601663977</v>
+      </c>
+      <c r="H32" t="s">
+        <v>602</v>
+      </c>
+      <c r="L32" t="s">
+        <v>506</v>
+      </c>
+      <c r="M32">
+        <v>390022</v>
+      </c>
+      <c r="N32">
+        <v>9601663977</v>
+      </c>
+      <c r="O32" s="2">
+        <v>44334.12079861111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>603</v>
+      </c>
+      <c r="F33" t="s">
+        <v>604</v>
+      </c>
+      <c r="G33">
+        <v>9662101698</v>
+      </c>
+      <c r="H33" t="s">
+        <v>605</v>
+      </c>
+      <c r="L33" t="s">
+        <v>606</v>
+      </c>
+      <c r="M33">
+        <v>393145</v>
+      </c>
+      <c r="N33">
+        <v>9662101698</v>
+      </c>
+      <c r="O33" s="2">
+        <v>44334.10261574074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>607</v>
+      </c>
+      <c r="F34" t="s">
+        <v>608</v>
+      </c>
+      <c r="G34">
+        <v>9824654050</v>
+      </c>
+      <c r="H34" t="s">
+        <v>609</v>
+      </c>
+      <c r="L34" t="s">
+        <v>610</v>
+      </c>
+      <c r="M34">
+        <v>390012</v>
+      </c>
+      <c r="N34">
+        <v>9824654050</v>
+      </c>
+      <c r="O34" s="2">
+        <v>44334.44990740741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>611</v>
+      </c>
+      <c r="F35" t="s">
+        <v>612</v>
+      </c>
+      <c r="G35">
+        <v>9724351345</v>
+      </c>
+      <c r="H35" t="s">
+        <v>613</v>
+      </c>
+      <c r="L35" t="s">
+        <v>614</v>
+      </c>
+      <c r="M35">
+        <v>363410</v>
+      </c>
+      <c r="N35">
+        <v>9724351345</v>
+      </c>
+      <c r="O35" s="2">
+        <v>44335.43739583333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>615</v>
+      </c>
+      <c r="G36">
+        <v>7418596230</v>
+      </c>
+      <c r="H36" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" t="s">
+        <v>616</v>
+      </c>
+      <c r="O36" s="2">
+        <v>44333.61931712963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>617</v>
+      </c>
+      <c r="F37" t="s">
+        <v>618</v>
+      </c>
+      <c r="G37">
+        <v>9824110541</v>
+      </c>
+      <c r="H37" t="s">
+        <v>619</v>
+      </c>
+      <c r="L37" t="s">
+        <v>620</v>
+      </c>
+      <c r="M37">
+        <v>394150</v>
+      </c>
+      <c r="N37">
+        <v>9824110541</v>
+      </c>
+      <c r="O37" s="2">
+        <v>44333.59994212963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>621</v>
+      </c>
+      <c r="F38" t="s">
+        <v>622</v>
+      </c>
+      <c r="G38">
+        <v>9799930900</v>
+      </c>
+      <c r="H38" t="s">
+        <v>623</v>
+      </c>
+      <c r="L38" t="s">
+        <v>624</v>
+      </c>
+      <c r="M38">
+        <v>313001</v>
+      </c>
+      <c r="N38">
+        <v>9799930900</v>
+      </c>
+      <c r="O38" s="2">
+        <v>44336.37469907408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>625</v>
+      </c>
+      <c r="F39" t="s">
+        <v>626</v>
+      </c>
+      <c r="G39">
+        <v>8140657087</v>
+      </c>
+      <c r="H39" t="s">
+        <v>191</v>
+      </c>
+      <c r="L39" t="s">
+        <v>627</v>
+      </c>
+      <c r="M39">
+        <v>384315</v>
+      </c>
+      <c r="N39">
+        <v>7802961111</v>
+      </c>
+      <c r="O39" s="2">
+        <v>44336.28936342592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44331</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>628</v>
+      </c>
+      <c r="F40" t="s">
+        <v>629</v>
+      </c>
+      <c r="G40">
         <v>1111111111</v>
       </c>
-      <c r="O2" s="2">
-        <v>NaN</v>
+      <c r="N40">
+        <v>1111111111</v>
+      </c>
+      <c r="O40" s="2">
+        <v>44331.36969907407</v>
       </c>
     </row>
   </sheetData>
